--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA84FBE-4613-4796-A5D4-BDEE9A484DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14B09A-42B7-4594-857C-2955CE06E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="3135" windowWidth="19005" windowHeight="11385" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -479,7 +479,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>짠</t>
+          <t>신</t>
         </r>
         <r>
           <rPr>
@@ -518,7 +518,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>신</t>
+          <t>쓴</t>
         </r>
         <r>
           <rPr>
@@ -557,7 +557,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>쓴</t>
+          <t>짠</t>
         </r>
         <r>
           <rPr>
@@ -1427,7 +1427,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC14B09A-42B7-4594-857C-2955CE06E8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4C35CD-266E-47F6-A669-0C00FC44FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -596,7 +596,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,10 +606,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아니야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>day</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -622,62 +618,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꺼져</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수강신청 제발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주원아 술 좀 그만 마셔라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지혁아 작업 좀 빨리 빨리 하자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알았지 ^^</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베일 존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임주원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술이 최고야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술 너가 유일한 친구야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소주 vs 양주?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에는 다이키리 먹어야지 허허</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 2차는 어디로 갈까</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드부에서 마셔야징</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,7 +678,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아니요</t>
+    <t>미아</t>
+  </si>
+  <si>
+    <t>미아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여긴 본 적이 없는데 최근에 개업하셨나봐요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 시골 촌에도 입주를 하는 사람이 있구나~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 상큼하고 신 걸 좋아해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 칵테일을 먹어본 적은 없지만..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 주문 내용은 이해하셨겠죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 칵테일에 대해 아는 건 없지만..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옆 집 펍보다는 그나마 나은 수준이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 현실적으로 번창하라는 말은 못하겠지만.. 열심히 해보세요~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다니엘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기가 친구가 말한 바가 맞겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로 생긴 바가 있다고 해서 친구놈이 실험쥐로 날 먼저 보냈어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 동네 사람들은 바라는 곳을 한 번도 가본 적이 없어서 아마 시내에 한 번이라도 가본 나를 앞세운 거겠지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 나도 사실상 바를 한 번도 가본 적은 없지만 말이야 하..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 생각보다 말이 없구나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>됐어 그럼. 내가 지금 외롭기도 하고.. 우울감도 좀 있는 것 같아서 아무한테나 말을 걸고 싶었거든</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 주문하는게 맞나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 바텐더, 오늘 내 기분대로 한 잔~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐 맥주만 마시던 내가 원하던 느낌은 아니지만..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 취하니까 기분은 좋네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번창하쇼~ 아니 번창은 힘들겠구나..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3813C-C140-4D5B-9DC5-AEE517EEDFFA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,18 +1191,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1180,12 +1211,12 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1194,12 +1225,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1208,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1261,7 @@
     <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" customWidth="1"/>
     <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="67.75" customWidth="1"/>
+    <col min="4" max="4" width="90.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1238,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1249,170 +1280,282 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1424,10 +1567,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED8E90-E9EF-4636-A305-9B13E1C654FB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1443,27 +1586,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1474,52 +1617,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811BABE-BAB6-42D8-A3A7-E4A933718843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD2B471-1723-491D-B1CF-8DE433E63884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
     <sheet name="Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="Scripts" sheetId="1" r:id="rId3"/>
+    <sheet name="AlcoholAnswers" sheetId="5" r:id="rId3"/>
+    <sheet name="Scripts" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{8140B1B5-ED95-4D29-A777-C86CB3F5BAD3}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8140B1B5-ED95-4D29-A777-C86CB3F5BAD3}">
       <text>
         <r>
           <rPr>
@@ -232,6 +233,264 @@
             <charset val="129"/>
           </rPr>
           <t>좋음</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>juho kim</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AE74FDE2-B25C-4C0D-8FA5-4B9C1F865E16}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>juho kim:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0:
+ </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>낮은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도수를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>줬을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">리액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정답</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">리액션
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>높은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>도수를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>줬을</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>때</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>리액션</t>
         </r>
       </text>
     </comment>
@@ -240,7 +499,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="60">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +549,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>alcohol_per_drunk_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cocktail_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,60 +561,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>max_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
     <t>003</t>
   </si>
   <si>
-    <t>drunk_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술 줘, 외계인 같은 걸로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나도 안 취했어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알딸딸하다~ 주모 여기 한 잔 더~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 줘, 방금 걸로 더 높여서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까 먹었던 걸로~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 집 잘하네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 비밀 하나 알려줘?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나만 더 주면 알려줄게, 쓰고 스모키한 걸로~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_drunk_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,139 +575,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하나도 안 취했잖아 내 말을 뭘로 아는거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">뭔가 아쉽다 그치? 한 잔만 더 말아봐 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까 전에 줬던 걸로 도수 높여서?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이거야~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 기분만 딱 유지할 수 있게 해줘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 좋아하는 달콤한 맛을 첨가해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토 나올 것 같아..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기다 그냥 해버린다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>난 상남자니까 한 잔만 더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(사망)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이게 술이라고 만드는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이럴 거면 차라리 카페를 가지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바텐더 교육이나 다시 배우는 거 어때?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럭저럭인데 다시 오고 싶은 느낌은 아니네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐 상남자인 내가 취할 수는 없는 일이지만 말이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>금고 비번은 앞자리는 04입니당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축하드립니당</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람이 언제 죽는 지 아나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허허 아저씨랑 좀만 더 놀자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 잔만 더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>껄껄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이딴게 술?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MORE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NO DRUNK NO LIFE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smoke By the Ocean 하나 주세요~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여윽시 사장님</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 그겁니다잉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 잔 더 말아주쇼~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 이정도로 죽지 안ㅎ아ㅏ…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 먹을 수 있다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄷ ㅓ 내 노 ㅏㅏ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#$%^%$^!@#?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅋ코몰옫ㅂ고도좋ㅅ곳?</t>
+    <t>hp_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hp_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaction_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수가 너무 낮잖아 이 정도로는 택도 없다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바가 너무 허름하군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 얼굴보면 뭘 줘야할 지 알겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딱 봐도 가족 파탄 난 사람처럼 생겼잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불효자 같은 술 한 잔 내와봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까랑 같은 걸로 한 잔 더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으악! 이건 술이 아니라 소독제잖아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소한 먹을 수 있는 걸 줘야지 개자식아!@!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 술은 못 먹겠으니까 다시 내와</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까랑 같은 걸로 말이야. 내 말 이해했지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 말을 잘 이해 못하나 본데 이런 걸 술이라 할 수는 없다는 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장사 망하는 꼴 보기 싫으면 똑같은 걸로 다시 한 번 말아. 이게 마지막 기회야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미친거야? 아예 손 소독제 회사를 차리지 그래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너가 준 먹을 수도 없을 독한 술로 너희 집에 불을 지르고 싶은 심정이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 기회니까 조금 더 약하게 타보라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 전에 말았던 걸로 다시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 진전이 없을 것 같네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진심으로 조언하는 거지만 장사를 접는게 좋을 것 같은데?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너같은 놈이랑 마주 앉고 있는게 시간 낭비인 것 같으니 나는 이만 떠봐야겠네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 머저리 같은 실력으로 잘난 바 운영이나 잘 해보라고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아 진짜 엿같은 손님이네;;;)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(난 오늘 처음이라고)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(엿이나 먹어라)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으오옭옭!!! 이ㄱ ㅓㅇ ㅑ…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ ㅐ 가.. ㅇ ㅣ런데 에ㅅ ㅓ… ㅆ ㅡ러지 ㄹ 수 느 ㄴ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cocktail_summary_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패드립 같은 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 전과 같은 칵테일로 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임주원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술 내놔 술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해변에서 먹으면 좋을 것 같은 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 검정한 칵테일을 원한다고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,11 +1143,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3813C-C140-4D5B-9DC5-AEE517EEDFFA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -924,7 +1157,7 @@
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -938,13 +1171,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -958,13 +1188,10 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,13 +1205,10 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1.5</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,10 +1222,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>1.3</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1016,17 +1237,17 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.375" customWidth="1"/>
     <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1035,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,17 +1278,17 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
         <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1075,19 +1296,19 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
         <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1095,19 +1316,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
         <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1117,17 +1338,17 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
         <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1135,19 +1356,19 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
         <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,38 +1376,122 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -1233,147 +1538,290 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123EDA01-C316-49FF-A05D-70C0E990769D}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="99.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1381,16 +1829,19 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1398,16 +1849,19 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1415,526 +1869,619 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>31</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>31</v>
+      <c r="D31">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
         <v>52</v>
       </c>
-      <c r="E33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>7</v>
       </c>
@@ -1942,16 +2489,19 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1959,86 +2509,22 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>41</v>
+        <v>56</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0791E-8863-4B94-8D3B-DA6DEB47B0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7345A-EFB9-43EE-AF7D-3E457E39C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
       <text>
         <r>
           <rPr>
@@ -115,9 +115,10 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0: square
-1: circle
-2: star</t>
+0: triangle
+1: square
+2: circle
+3: star</t>
         </r>
       </text>
     </comment>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +369,14 @@
   </si>
   <si>
     <t>죽음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triangle_leaven_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcohol_control_attempt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3813C-C140-4D5B-9DC5-AEE517EEDFFA}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -849,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -860,7 +869,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
@@ -868,10 +877,12 @@
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,10 +917,16 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,10 +961,16 @@
         <v>4</v>
       </c>
       <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -984,8 +1007,14 @@
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1020,10 +1049,16 @@
         <v>5</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1095,14 @@
       <c r="L5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1098,8 +1139,14 @@
       <c r="L6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1134,28 +1181,34 @@
         <v>5</v>
       </c>
       <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1204,7 +1257,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B7345A-EFB9-43EE-AF7D-3E457E39C58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AECBE-3756-4585-A7E1-DB133D9E7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cocktail_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,26 +181,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>condition_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베일 존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>002</t>
-  </si>
-  <si>
-    <t>condition_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>베일 존</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검정 검정한 칵테일을 원한다고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,34 +237,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해변이 떠오르는 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>엄마가 보고싶은 칵테일을 달라고 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노란 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임주원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">바가 너무 허름하군 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해변이 떠오르는 칵테일로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오랜만이네~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,51 +297,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김서연</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>까만 칵테일핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MZ한 말투로 까만 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알딸딸핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란 칵테일핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅊ ㅟ 기 피 ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅍ ㅏ 란 카 ㄱ테이 ㄹ피 ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑핑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>triangle_leaven_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>alcohol_control_attempt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리언스 마을의 달 같은 칵테일을 원한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리언스 마을의 달 같은 칵테일로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달달한 설탕 맛이 나는 칵테일을 원한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3813C-C140-4D5B-9DC5-AEE517EEDFFA}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -818,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,21 +773,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -860,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,43 +814,43 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -934,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -978,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1022,10 +949,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1059,136 +986,16 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>32</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>97</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>88</v>
-      </c>
-      <c r="F7">
-        <v>88</v>
-      </c>
-      <c r="G7">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>6</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1254,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1274,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -1291,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1319,10 +1126,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1333,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1347,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1361,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1375,10 +1182,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1389,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1403,10 +1210,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,10 +1266,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,10 +1294,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,10 +1308,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,122 +1322,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AECBE-3756-4585-A7E1-DB133D9E7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49111DC-A3ED-47EF-B663-9C64E8903504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,22 @@
   </si>
   <si>
     <t>달달한 설탕 맛이 나는 칵테일을 원한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>character_sprite_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wasted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drunken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1061,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1072,11 +1088,12 @@
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="72.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="5" max="5" width="72.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,8 +1106,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="D2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1117,8 +1140,11 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1131,8 +1157,11 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1145,8 +1174,11 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1192,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1206,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1216,7 +1248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1262,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1244,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49111DC-A3ED-47EF-B663-9C64E8903504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D3E3A-5F4E-42ED-A7D0-5D4DB21DA86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,10 @@
   </si>
   <si>
     <t>Drunken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RasieArm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1084,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1145,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1191,6 +1195,9 @@
       <c r="D6" t="s">
         <v>29</v>
       </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1205,6 +1212,9 @@
       <c r="D7" t="s">
         <v>30</v>
       </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1219,6 +1229,9 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1233,6 +1246,9 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1247,6 +1263,9 @@
       <c r="D10" t="s">
         <v>33</v>
       </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -1261,6 +1280,9 @@
       <c r="D11" t="s">
         <v>34</v>
       </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1275,6 +1297,9 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -1289,6 +1314,9 @@
       <c r="D13" t="s">
         <v>36</v>
       </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -1303,6 +1331,9 @@
       <c r="D14" t="s">
         <v>37</v>
       </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1317,6 +1348,9 @@
       <c r="D15" t="s">
         <v>38</v>
       </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1331,8 +1365,11 @@
       <c r="D16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="D17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1358,6 +1398,9 @@
       </c>
       <c r="D18" t="s">
         <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505D3E3A-5F4E-42ED-A7D0-5D4DB21DA86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9476F-E431-4AA6-841C-F292AB8366B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
     <sheet name="Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="Scripts" sheetId="1" r:id="rId3"/>
+    <sheet name="CocktailRejectScripts" sheetId="5" r:id="rId3"/>
+    <sheet name="Scripts" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{78E924C4-BB7B-4BDA-9F19-316279831398}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{78E924C4-BB7B-4BDA-9F19-316279831398}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{8CC9AE63-9265-40C5-BFB5-C2C30253690D}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8CC9AE63-9265-40C5-BFB5-C2C30253690D}">
       <text>
         <r>
           <rPr>
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,14 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올리언스 마을의 달 같은 칵테일을 원한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>올리언스 마을의 달 같은 칵테일로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달달한 설탕 맛이 나는 칵테일을 원한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>character_sprite_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,6 +323,46 @@
   </si>
   <si>
     <t>RasieArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cockail_reject_script</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리언스 마을의 달 같은 칵테일 하나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달달한 설탕 맛이 나는 칵테일로.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달이라고 달! Moon 몰라?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon이라고 너 영어 몇등급이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 내가 달 같은 걸 달라고 했을텐데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런 거 말고 설탕이 들어간 느낌이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 말고 설탕 같은 재료를 넣어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설탕 Sugar!! 말귀를 왜 못 알아 먹는거야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_alcohol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,7 +854,7 @@
     <col min="14" max="14" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,40 +865,37 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
       <c r="K1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,43 +903,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>4</v>
-      </c>
       <c r="L2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,114 +947,108 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>11</v>
-      </c>
       <c r="G3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1080,10 +1093,142 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8750EC-8C0F-4C2D-95F6-3613BDE4906E}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1111,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1125,10 +1270,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,10 +1287,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1159,10 +1304,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1176,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1190,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1207,13 +1352,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1224,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1241,13 +1386,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1258,13 +1403,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1275,13 +1420,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,13 +1437,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1326,13 +1471,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,13 +1488,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,13 +1505,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1377,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1394,13 +1539,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C9476F-E431-4AA6-841C-F292AB8366B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227D3E1-80E8-4BA4-805C-BB3BE32B5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
     <sheet name="Steps" sheetId="4" r:id="rId2"/>
     <sheet name="CocktailRejectScripts" sheetId="5" r:id="rId3"/>
-    <sheet name="Scripts" sheetId="1" r:id="rId4"/>
+    <sheet name="BarScripts" sheetId="1" r:id="rId4"/>
+    <sheet name="NPCScripts" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +364,50 @@
   </si>
   <si>
     <t>answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼, 벌써 출근하는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 좀 있다가 보자고~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신의 그 솜씨 좋은 술맛은 여전하겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼! 자네가 저번에 흘리고 간 물건이 있는데 이거 가져가게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼼꼼하던 자네가 칠칠맞게 흘리고 다닐 줄이야 누가 알았겠나 하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 간수 잘하게~ 요새 뒷골목 사람들이 판치고 다니니..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧 월세 내는 날인 건 알고 있겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 사정이 급해~ 우리도 이러고 싶진 않다고.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3일까지 잘 준비해보라고 크킄..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1229,7 +1274,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1553,4 +1598,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B24B819-66CE-4522-A8E9-8CAC3D8F6FB2}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6227D3E1-80E8-4BA4-805C-BB3BE32B5523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E29ADD-6710-46AB-8AED-826FE7AD1479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="4" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,74 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>끄아 취한다~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마가 보고싶은 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">바가 너무 허름하군 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만이네~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그거 알아? 4일 전에 김주호가 생일이였데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김주호 생일은 10월 9일이니까 잘 기억해둬~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검정 검정한 칵테일로~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캬~ ㅣㅇ 거야~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 마실 수 있겠는 걸?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 그거 알아?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀 있으면 김지혁도 생일이래~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘 기억하라고~?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내심 기대하고 있을거니까 안해주면 삐질거야 아마..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄마가 보고 싶은 칵테일로 한잔~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅣ ㄱ ㅓㄴ야ㅑㅑㅏ~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WASTED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>triangle_leaven_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올리언스 마을의 달 같은 칵테일로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>셀레나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,38 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올리언스 마을의 달 같은 칵테일 하나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달달한 설탕 맛이 나는 칵테일로.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달이라고 달! Moon 몰라?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Moon이라고 너 영어 몇등급이야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분명 내가 달 같은 걸 달라고 했을텐데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런 거 말고 설탕이 들어간 느낌이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이거 말고 설탕 같은 재료를 넣어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설탕 Sugar!! 말귀를 왜 못 알아 먹는거야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>answer_alcohol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,6 +304,189 @@
   </si>
   <si>
     <t>3일까지 잘 준비해보라고 크킄..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼 오랜만이네 요즘 기분이 별로 안좋네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 입안이 화해 지면서 시원한 칵테일을 마시고 싶군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 이런 비슷한 칵테일 한잔 주겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 기분이면 제일 독한걸로 한잔 더 가능하겠…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍홍…(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음! 콜먼 역시 당신 실력은 최고야 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼~요즘 바빠서 많이 못왔어요. 미안해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 마음과 같은 칵테일 한잔 줘요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만에 콜먼을 보니 제 마음이 핑크빛 이네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼…! 내가 당신 실력을 평생 가지고 싶어요. 어쩜 이리 잘만들까요..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한잔 더 줄래요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">음.. 제가 내일 스케쥴이 있어서.. 더 많이 취하면 안될 것 같은데.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그럼 얼음 처럼 시원해 보이는 칵테일 한잔 줘..클클…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(흠흠) 클클이라니… 저 원래 이렇게 안웃어요 흥.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신은 천재인것 같아!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클클클클클..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으ㅡ음.. 제가 많이 취했나보 ㅏ…요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>읗흐흫ㅎ .. 킥킥ㅋ기 콜먼.. 당신은 내..가..ㄱ.ㅏ.질..꺼..야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클클…(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으음…? 콜먼.. 당신 나랑 장난해요? 다시 줘요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가 보면 다른 사람이 만든줄 알겠어요. 다시주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으윽.. 전혀 내 취향이 아니잖아!! 다시 내놔!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠…? 자네 오늘은 컨디션이 별로 인가 보군! 다시 내놓으시게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퉷 바다의 쓴맛보다 더 맛없다고!! 다시 줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 아쉬운 맛이군요. 다시 부탁드려요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끄윽 맛없어.. 다시 줘요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퉤퉤퉤.. 제가 고급 입맛이라.. 제 취향 알잖아요? 다시 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우웩.. 이건 아니잖아요.. 오늘 솜씨가 엉망이네요. 다시 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two_hands_chin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal_stage_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Two_hands_table</t>
+  </si>
+  <si>
+    <t>Two_hands_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 퇴근하는 거냐?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈은 꽤 벌었고? 어서 모아~키킼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼! 자네 퇴근하는건가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 한번 들어야하는데 요새 일이 너무 많군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아깐 내가 꼬장 부려 미안하네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 다음에도 잘 부탁하겠네!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼! 오늘 잘마셨다!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +957,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -886,7 +965,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
@@ -913,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -931,13 +1010,13 @@
         <v>22</v>
       </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
         <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -948,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -989,10 +1068,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1030,10 +1109,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1142,7 +1221,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1239,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1171,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1182,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1204,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1215,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1226,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1237,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1271,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1361,7 @@
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" customWidth="1"/>
+    <col min="4" max="4" width="74.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
   </cols>
@@ -1301,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1315,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,10 +1411,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1343,16 +1422,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1366,44 +1445,44 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1414,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1431,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,16 +1524,16 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1465,13 +1544,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1482,13 +1561,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1499,13 +1578,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1516,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1533,13 +1612,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1547,16 +1626,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1567,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,13 +1663,64 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1604,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B24B819-66CE-4522-A8E9-8CAC3D8F6FB2}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1626,7 +1756,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1634,7 +1764,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1642,7 +1772,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1780,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,7 +1788,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1666,97 +1796,132 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,23 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\Nemesis1842\Assets\Resources\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E29ADD-6710-46AB-8AED-826FE7AD1479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8AECBE-3756-4585-A7E1-DB133D9E7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="4" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
     <sheet name="Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="CocktailRejectScripts" sheetId="5" r:id="rId3"/>
-    <sheet name="BarScripts" sheetId="1" r:id="rId4"/>
-    <sheet name="NPCScripts" sheetId="6" r:id="rId5"/>
+    <sheet name="Scripts" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +43,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{78E924C4-BB7B-4BDA-9F19-316279831398}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{78E924C4-BB7B-4BDA-9F19-316279831398}">
       <text>
         <r>
           <rPr>
@@ -71,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8CC9AE63-9265-40C5-BFB5-C2C30253690D}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{8CC9AE63-9265-40C5-BFB5-C2C30253690D}">
       <text>
         <r>
           <rPr>
@@ -97,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
       <text>
         <r>
           <rPr>
@@ -129,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +189,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>min_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_answer_alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,6 +229,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>끄아 취한다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 보고싶은 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바가 너무 허름하군 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만이네~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거 알아? 4일 전에 김주호가 생일이였데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김주호 생일은 10월 9일이니까 잘 기억해둬~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정 검정한 칵테일로~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캬~ ㅣㅇ 거야~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 마실 수 있겠는 걸?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 그거 알아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 있으면 김지혁도 생일이래~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘 기억하라고~?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내심 기대하고 있을거니까 안해주면 삐질거야 아마..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄마가 보고 싶은 칵테일로 한잔~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅣ ㄱ ㅓㄴ야ㅑㅑㅏ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASTED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>triangle_leaven_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,262 +305,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>올리언스 마을의 달 같은 칵테일을 원한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리언스 마을의 달 같은 칵테일로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>셀레나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character_sprite_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wasted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drunken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RasieArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cockail_reject_script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼, 벌써 출근하는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 좀 있다가 보자고~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신의 그 솜씨 좋은 술맛은 여전하겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 자네가 저번에 흘리고 간 물건이 있는데 이거 가져가게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼼꼼하던 자네가 칠칠맞게 흘리고 다닐 줄이야 누가 알았겠나 하하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 간수 잘하게~ 요새 뒷골목 사람들이 판치고 다니니..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곧 월세 내는 날인 건 알고 있겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 사정이 급해~ 우리도 이러고 싶진 않다고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일까지 잘 준비해보라고 크킄..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼 오랜만이네 요즘 기분이 별로 안좋네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 입안이 화해 지면서 시원한 칵테일을 마시고 싶군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 이런 비슷한 칵테일 한잔 주겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 기분이면 제일 독한걸로 한잔 더 가능하겠…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍홍…(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음! 콜먼 역시 당신 실력은 최고야 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼~요즘 바빠서 많이 못왔어요. 미안해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제 마음과 같은 칵테일 한잔 줘요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만에 콜먼을 보니 제 마음이 핑크빛 이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼…! 내가 당신 실력을 평생 가지고 싶어요. 어쩜 이리 잘만들까요..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한잔 더 줄래요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">음.. 제가 내일 스케쥴이 있어서.. 더 많이 취하면 안될 것 같은데.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 얼음 처럼 시원해 보이는 칵테일 한잔 줘..클클…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(흠흠) 클클이라니… 저 원래 이렇게 안웃어요 흥.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 천재인것 같아!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클클클클클..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으ㅡ음.. 제가 많이 취했나보 ㅏ…요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>읗흐흫ㅎ .. 킥킥ㅋ기 콜먼.. 당신은 내..가..ㄱ.ㅏ.질..꺼..야..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클클…(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으음…? 콜먼.. 당신 나랑 장난해요? 다시 줘요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가 보면 다른 사람이 만든줄 알겠어요. 다시주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으윽.. 전혀 내 취향이 아니잖아!! 다시 내놔!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠…? 자네 오늘은 컨디션이 별로 인가 보군! 다시 내놓으시게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퉷 바다의 쓴맛보다 더 맛없다고!! 다시 줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 아쉬운 맛이군요. 다시 부탁드려요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끄윽 맛없어.. 다시 줘요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퉤퉤퉤.. 제가 고급 입맛이라.. 제 취향 알잖아요? 다시 주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우웩.. 이건 아니잖아요.. 오늘 솜씨가 엉망이네요. 다시 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_hands_chin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal_stage_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_hands_table</t>
-  </si>
-  <si>
-    <t>Two_hands_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이 퇴근하는 거냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈은 꽤 벌었고? 어서 모아~키킼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 자네 퇴근하는건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 한번 들어야하는데 요새 일이 너무 많군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아깐 내가 꼬장 부려 미안하네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무튼 다음에도 잘 부탁하겠네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 오늘 잘마셨다!</t>
+    <t>달달한 설탕 맛이 나는 칵테일을 원한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -954,10 +785,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,7 +796,7 @@
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
@@ -978,7 +809,7 @@
     <col min="14" max="14" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -989,37 +820,40 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
       </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,40 +861,43 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
         <v>80</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,111 +905,117 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4">
+        <v>48</v>
+      </c>
+      <c r="G4">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
       <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1217,143 +1060,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8750EC-8C0F-4C2D-95F6-3613BDE4906E}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1361,12 +1072,11 @@
     <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="72.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1379,11 +1089,8 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1394,13 +1101,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1413,28 +1117,22 @@
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1445,47 +1143,38 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1493,16 +1182,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1510,33 +1196,27 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1544,16 +1224,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1561,16 +1238,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1578,16 +1252,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1595,16 +1266,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1612,33 +1280,27 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -1646,16 +1308,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1663,64 +1322,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1728,207 +1333,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B24B819-66CE-4522-A8E9-8CAC3D8F6FB2}">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\Nemesis1842\Assets\Resources\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E29ADD-6710-46AB-8AED-826FE7AD1479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDA5F5-14E0-4919-A270-9E582D7B487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="4" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -1352,8 +1352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1734,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B24B819-66CE-4522-A8E9-8CAC3D8F6FB2}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CDA5F5-14E0-4919-A270-9E582D7B487A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C47BD-645C-4C26-A8FE-FC428D6F806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,10 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RasieArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cockail_reject_script</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -439,10 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal_stage_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Two_hands_table</t>
   </si>
   <si>
@@ -487,6 +479,10 @@
   </si>
   <si>
     <t>콜먼! 오늘 잘마셨다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaiseArm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +988,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1030,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1071,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1112,7 +1108,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1221,7 +1217,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1239,7 +1235,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1250,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1261,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1272,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1283,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1294,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1305,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1316,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1327,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1338,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1349,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1394,7 +1390,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>27</v>
@@ -1411,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>27</v>
@@ -1428,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1445,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
@@ -1462,10 +1458,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1479,7 +1475,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
@@ -1496,7 +1492,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>27</v>
@@ -1513,7 +1509,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
         <v>27</v>
@@ -1530,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1547,10 +1543,10 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1564,10 +1560,10 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1581,10 +1577,10 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,10 +1594,10 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1615,10 +1611,10 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1632,10 +1628,10 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1649,10 +1645,10 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1666,10 +1662,10 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1683,10 +1679,10 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1700,10 +1696,10 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1717,7 +1713,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
@@ -1745,7 +1741,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1756,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1764,7 +1760,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1772,7 +1768,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1780,7 +1776,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1788,7 +1784,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1796,87 +1792,87 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
         <v>83</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C47BD-645C-4C26-A8FE-FC428D6F806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B2049-491D-49CD-AA66-A367B00E9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="11010" yWindow="3765" windowWidth="19005" windowHeight="11385" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -124,12 +124,456 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AF635680-332F-46E0-98A9-9233746ACEDB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>juho kim:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삼각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삼각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곡선</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">삼각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>삼각파</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>변형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>좁은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>역</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">사각파
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">부정맥
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">9: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사각</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">부정맥
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곡선</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">부정맥
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">11: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>상사병</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -483,6 +927,10 @@
   </si>
   <si>
     <t>RaiseArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeat_answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +938,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +966,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -950,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -962,19 +1417,18 @@
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1012,10 +1466,13 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,8 +1512,11 @@
       <c r="M2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,10 +1554,13 @@
         <v>1</v>
       </c>
       <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1135,40 +1598,43 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1348,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29B2049-491D-49CD-AA66-A367B00E9238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDDEFB-EBEC-4B3C-A18D-41E36283C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11010" yWindow="3765" windowWidth="19005" windowHeight="11385" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
   <si>
     <t>guest_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -668,10 +668,6 @@
   </si>
   <si>
     <t>triangle_leaven_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alcohol_control_attempt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1405,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1424,7 @@
     <col min="13" max="14" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1438,7 @@
         <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -1466,13 +1462,10 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1483,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1512,11 +1505,8 @@
       <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1527,7 +1517,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1556,11 +1546,8 @@
       <c r="M3">
         <v>9</v>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1571,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1600,41 +1587,38 @@
       <c r="M4">
         <v>10</v>
       </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -1701,7 +1685,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1712,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1723,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1734,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1745,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1756,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1767,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1778,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1789,7 +1773,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1800,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1856,10 +1840,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1873,10 +1857,10 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1890,10 +1874,10 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1907,10 +1891,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1924,10 +1908,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1941,10 +1925,10 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1955,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1972,13 +1956,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2006,13 +1990,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2023,13 +2007,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2040,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2057,13 +2041,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2074,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2091,13 +2075,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2108,13 +2092,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2125,13 +2109,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2142,13 +2126,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2159,13 +2143,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2176,13 +2160,13 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2191,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2218,7 +2202,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2226,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2242,7 +2226,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2250,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,87 +2242,87 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
         <v>78</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
         <v>81</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
         <v>84</v>
-      </c>
-      <c r="B16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCDDEFB-EBEC-4B3C-A18D-41E36283C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B5FF9-9A79-4CB5-8B19-265288301439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5617D017-30E4-41E9-B447-248D8C09DB73}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -19,23 +19,7 @@
     <sheet name="BarScripts" sheetId="1" r:id="rId4"/>
     <sheet name="NPCScripts" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +29,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{78E924C4-BB7B-4BDA-9F19-316279831398}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -71,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8CC9AE63-9265-40C5-BFB5-C2C30253690D}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{0EDAAA86-2081-40D7-9085-356483A8929D}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{AF635680-332F-46E0-98A9-9233746ACEDB}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -573,388 +557,646 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
   <si>
     <t>guest_code</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>character_name</t>
+  </si>
+  <si>
+    <t>character_code</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>cocktail_code</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>step_order</t>
+  </si>
+  <si>
+    <t>condition_value</t>
+  </si>
+  <si>
+    <t>베일 존</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>cocktail_summary_text</t>
+  </si>
+  <si>
+    <t>condition_answer</t>
+  </si>
+  <si>
+    <t>leaven_answer</t>
+  </si>
+  <si>
+    <t>square_leaven_count</t>
+  </si>
+  <si>
+    <t>circle_leaven_count</t>
+  </si>
+  <si>
+    <t>star_leaven_count</t>
+  </si>
+  <si>
+    <t>triangle_leaven_count</t>
+  </si>
+  <si>
+    <t>셀레나</t>
+  </si>
+  <si>
+    <t>character_sprite_code</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Wasted</t>
+  </si>
+  <si>
+    <t>Drunken</t>
+  </si>
+  <si>
+    <t>cockail_reject_script</t>
+  </si>
+  <si>
+    <t>answer_alcohol</t>
+  </si>
+  <si>
+    <t>npc_code</t>
+  </si>
+  <si>
+    <t>콜먼, 벌써 출근하는 거야?</t>
+  </si>
+  <si>
+    <t>그럼 좀 있다가 보자고~</t>
+  </si>
+  <si>
+    <t>당신의 그 솜씨 좋은 술맛은 여전하겠지?</t>
+  </si>
+  <si>
+    <t>콜먼! 자네가 저번에 흘리고 간 물건이 있는데 이거 가져가게</t>
+  </si>
+  <si>
+    <t>꼼꼼하던 자네가 칠칠맞게 흘리고 다닐 줄이야 누가 알았겠나 하하</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>곧 월세 내는 날인 건 알고 있겠지?</t>
+  </si>
+  <si>
+    <t>우리 사정이 급해~ 우리도 이러고 싶진 않다고.</t>
+  </si>
+  <si>
+    <t>3일까지 잘 준비해보라고 크킄..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
+  </si>
+  <si>
+    <t>당신은 천재인것 같아!!</t>
+  </si>
+  <si>
+    <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
+  </si>
+  <si>
+    <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고한다.</t>
+  </si>
+  <si>
+    <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
+  </si>
+  <si>
+    <t>Two_hands_chin</t>
+  </si>
+  <si>
+    <t>Two_hands_table</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>어이 퇴근하는 거냐?</t>
+  </si>
+  <si>
+    <t>돈은 꽤 벌었고? 어서 모아~키킼</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>콜먼! 자네 퇴근하는건가?</t>
+  </si>
+  <si>
+    <t>나도 한번 들어야하는데 요새 일이 너무 많군</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>RaiseArm</t>
+  </si>
+  <si>
+    <t>heartbeat_answer</t>
+  </si>
+  <si>
+    <t>interact_state</t>
+  </si>
+  <si>
+    <t>자네 바쁜 거 아닌가?</t>
+  </si>
+  <si>
+    <t>어서 출근하러 가라고</t>
+  </si>
+  <si>
+    <t>물건 간수 잘하게~ 요새 뒷골목 놈들이 판치고 다니니..</t>
+  </si>
+  <si>
+    <t>조심하는게 좋을거야..</t>
+  </si>
+  <si>
+    <t>얼마 남지 않았다고? 부지런히 움직이는게 좋을 거야~</t>
+  </si>
+  <si>
+    <t>내일도 움직여야 하잖나?</t>
+  </si>
+  <si>
+    <t>어서 퇴근하러 가라고~</t>
+  </si>
+  <si>
+    <t>최근에 많은 일이 있어서 못들렸네</t>
+  </si>
+  <si>
+    <t>역시 자네 솜씨는 최고야 하나만 더주게,,</t>
+  </si>
+  <si>
+    <t>으얽,,,</t>
+  </si>
+  <si>
+    <t>안녕 콜먼~ 요새 바빠서 잘 오지도 못했네 미안</t>
+  </si>
+  <si>
+    <t>역시 콜먼,, 당신은 미쳤어,, 어쩜 내 입맛을 이렇게 딱맞게 만들어 줄수 있어?</t>
+  </si>
+  <si>
+    <t>하나만 마시면 아쉬우니 하나만 더줘봐</t>
+  </si>
+  <si>
+    <t>으어ㅓ어,,, 콜머어언,,,나랑 놀자,,,</t>
+  </si>
+  <si>
+    <t>기절,,,</t>
+  </si>
+  <si>
+    <t>내 취향알지? 예쁜걸로 하나 주도록 해 핑크색인데 레몬맛나는거 알지?</t>
+  </si>
+  <si>
+    <t>반가우니 술하나만 만들어 주시게나</t>
+  </si>
+  <si>
+    <t>시나몬 향이 나는 칵테일을 달라고 한다.</t>
+  </si>
+  <si>
+    <t>입이 텁텁하니 화한 맛이 나는 청량한 술로 주게 그그 저번에 은하수모양 있지않나?</t>
+  </si>
+  <si>
+    <t>이번에는 조금 달달한걸로 저번에 그 있자나? 달떠있는거? 그걸로 줘바</t>
+  </si>
+  <si>
+    <t>역시,,,이맛이야,,음,,,</t>
+  </si>
+  <si>
+    <t>아으,, 정신이 몽롱해 ,,, 아 맞다,, 2주전에 나한테 줬던 선물 정말 고마워,</t>
+  </si>
+  <si>
+    <t>호호호호호,,</t>
+  </si>
+  <si>
+    <t>으ㅡ음,, 제가 많이 취했나보 ㅏ,,,</t>
+  </si>
+  <si>
+    <t>근데 못참겠구나 하나만 더줘,,,!!!</t>
+  </si>
+  <si>
+    <t>아까랑 같은걸로 주게나,,,!!</t>
+  </si>
+  <si>
+    <t>크으ㅡㅡ 이게 얼마만의 술인가,,,</t>
+  </si>
+  <si>
+    <t>역시 자네는 ,,,크어ㅓ어,,,</t>
+  </si>
+  <si>
+    <t>크어어 좋구나 좋아,,,으,,으ㅜㅁ,,,!!</t>
+  </si>
+  <si>
+    <t>아까 줬던 걸로 다시 주라고 한다.</t>
+  </si>
+  <si>
+    <t>하하 안녕하신가! 또왔네</t>
+  </si>
+  <si>
+    <t>저번처럼 좋은거 하나 주시게나</t>
+  </si>
+  <si>
+    <t>흠,,, 오늘 기분이 씁쓸하니,, 시나몬향의 칵테일 하나만 만들어주게</t>
+  </si>
+  <si>
+    <t>난 계피가 들어가야 기분이 좀 낫더라고 그리고 알코올도! 허허...</t>
+  </si>
+  <si>
+    <t>음,,, 취하면 안되는데,,</t>
+  </si>
+  <si>
+    <t>내일 배를 탄다 말일쎄,,</t>
+  </si>
+  <si>
+    <t>콜먼 오랜만이군</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>script</t>
+    <t>돈을 준비하려면 어서 움직여야하지 않겠어? 크킄..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>day</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>아니야, 차가움이 부족해. 얼음처럼 투명하고 깨끗한 느낌을 더해야 해.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(흠... 달빛처럼 은은한 반짝임이 느껴지지 않아. 더 신비롭게 만들어야겠어.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(이건 아니야. 달 표면처럼 보이지 않아. 차분하고 고요한 느낌이 필요해.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>음... 아니야. 따뜻한 시나몬의 색감이 부족해. 더 진하고, 더 포근해야 해.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order</t>
+    <t>(흠... 반짝거리는 갈색 가루가 제대로 표현되지 않았어. 우주 쓰레기의 독특한 터치가 느껴지지 않아.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character_name</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이건 아니야. 첫맛은 풍부하고 끝맛은 쌉쌀한 그 완벽한 대비가 있어야 해. 다시 해보자.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>character_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(흠... 마치 하늘에 떠 있는 구름처럼 우아한 느낌이 나야 하는데 전혀 다른걸..)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, 더 몽글몽글하고 가벼운 느낌이 필요해.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이건 은하수처럼 보이지 않아. 반짝이고 청량하게 만들어야겠어.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, 입안에서 화해지는 느낌이 부족해. 마치 민트바람이 지나가는 그런 상쾌함이 필요해.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음... 아니야. 더 상쾌하고 별빛처럼 맑아야 해.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02</t>
+    <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cocktail_code</t>
+    <t>(주문한 칵테일이 아닌 것 같아. 부드럽고 핑크빛으로 가득한, 그런 우아함이 필요해.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이, 콜먼! 오늘도 바쁜 하루겠지? 일찍 서둘러야 손님들이 기다리지 않을 거야.</t>
+  </si>
+  <si>
+    <t>자네, 오늘도 멋진 칵테일로 사람들 홀리겠지? 그 솜씨, 참 대단하다니까.</t>
+  </si>
+  <si>
+    <t>출근길인가? 오늘도 가게 분위기 좀 제대로 살려줘야 할 텐데. 기대하고 있다고!</t>
+  </si>
+  <si>
+    <t>어서 가보게, 손님들 기다리다 지치면 안 되잖아. 자네 솜씨에 달린 일이니까.</t>
+  </si>
+  <si>
+    <t>0010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
+    <t>퇴근인가? 오늘도 고생 많았네. 바 분위기는 여전히 멋졌겠지?</t>
+  </si>
+  <si>
+    <t>어이, 콜먼! 퇴근길에 뭐 하나 챙겨가려고? 자네 맛 좀 볼 수 있으면 좋겠구먼.</t>
+  </si>
+  <si>
+    <t>밤새워 일하다니 참 대단하구먼. 얼른 들어가 쉬어야 할 텐데.</t>
+  </si>
+  <si>
+    <t>0007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>step_order</t>
+    <t>오늘 날씨 좋지? 우리가 살짝 긴장만 풀면 다 끝날 것 같은 날씨야, 그치?</t>
+  </si>
+  <si>
+    <t>우린 참 착한 사람들이야, 알지? 적당히 하면 넘어가줄지도 몰라, 크킄</t>
+  </si>
+  <si>
+    <t>야, 뭐해? 어서 움직이라고. 시간은 금이라고? 우리한텐 돈이지, 크킄.</t>
+  </si>
+  <si>
+    <t>뭐해, 뭐해! 농땡이 부릴 시간 있으면 얼른 움직여야지. 다 보여, 다 보여</t>
+  </si>
+  <si>
+    <t>0011</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>condition_value</t>
+    <t>뭐야, 벌써 끝난 거야? 부지런하네. 좀 쉬고 가도 되지 않겠어?</t>
+  </si>
+  <si>
+    <t>퇴근하는 거 보면 뭔가 기분이 묘하네. 오늘 밤도 잘해봐, 크킄.</t>
+  </si>
+  <si>
+    <t>어서 가라니까! 근데... 오늘도 뭐 좀 챙겨왔어? 크킄.</t>
+  </si>
+  <si>
+    <t>0008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>베일 존</t>
+    <t>콜먼, 오늘도 한바탕 하러 가는 거지? 저녁 장사 잘되길 바라네!</t>
+  </si>
+  <si>
+    <t>그 바에 가면 손님들이 줄을 서서 기다린다던데, 자네 덕분 아닐까?</t>
+  </si>
+  <si>
+    <t>어두운 길 조심하게나. 생선처럼 미끄러질 수도 있으니 말이야, 크하하!</t>
+  </si>
+  <si>
+    <t>0009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cocktail_summary_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leaven_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>square_leaven_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_leaven_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>star_leaven_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triangle_leaven_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀레나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>character_sprite_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wasted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drunken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cockail_reject_script</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_alcohol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼, 벌써 출근하는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 좀 있다가 보자고~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신의 그 솜씨 좋은 술맛은 여전하겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 자네가 저번에 흘리고 간 물건이 있는데 이거 가져가게</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼼꼼하던 자네가 칠칠맞게 흘리고 다닐 줄이야 누가 알았겠나 하하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 간수 잘하게~ 요새 뒷골목 사람들이 판치고 다니니..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>곧 월세 내는 날인 건 알고 있겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 사정이 급해~ 우리도 이러고 싶진 않다고.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3일까지 잘 준비해보라고 크킄..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼 오랜만이네 요즘 기분이 별로 안좋네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 입안이 화해 지면서 시원한 칵테일을 마시고 싶군.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시 이런 비슷한 칵테일 한잔 주겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 기분이면 제일 독한걸로 한잔 더 가능하겠…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍홍…(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음! 콜먼 역시 당신 실력은 최고야 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼~요즘 바빠서 많이 못왔어요. 미안해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제 마음과 같은 칵테일 한잔 줘요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오랜만에 콜먼을 보니 제 마음이 핑크빛 이네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼…! 내가 당신 실력을 평생 가지고 싶어요. 어쩜 이리 잘만들까요..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한잔 더 줄래요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">음.. 제가 내일 스케쥴이 있어서.. 더 많이 취하면 안될 것 같은데.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그럼 얼음 처럼 시원해 보이는 칵테일 한잔 줘..클클…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(흠흠) 클클이라니… 저 원래 이렇게 안웃어요 흥.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당신은 천재인것 같아!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클클클클클..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으ㅡ음.. 제가 많이 취했나보 ㅏ…요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>읗흐흫ㅎ .. 킥킥ㅋ기 콜먼.. 당신은 내..가..ㄱ.ㅏ.질..꺼..야..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클클…(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으음…? 콜먼.. 당신 나랑 장난해요? 다시 줘요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누가 보면 다른 사람이 만든줄 알겠어요. 다시주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으윽.. 전혀 내 취향이 아니잖아!! 다시 내놔!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠…? 자네 오늘은 컨디션이 별로 인가 보군! 다시 내놓으시게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퉷 바다의 쓴맛보다 더 맛없다고!! 다시 줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 아쉬운 맛이군요. 다시 부탁드려요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끄윽 맛없어.. 다시 줘요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퉤퉤퉤.. 제가 고급 입맛이라.. 제 취향 알잖아요? 다시 주세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우웩.. 이건 아니잖아요.. 오늘 솜씨가 엉망이네요. 다시 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_hands_chin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Two_hands_table</t>
-  </si>
-  <si>
-    <t>Two_hands_table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이 퇴근하는 거냐?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈은 꽤 벌었고? 어서 모아~키킼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 자네 퇴근하는건가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 한번 들어야하는데 요새 일이 너무 많군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아깐 내가 꼬장 부려 미안하네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아무튼 다음에도 잘 부탁하겠네!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 오늘 잘마셨다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RaiseArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartbeat_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>이런, 콜먼. 밤새 고생했겠구먼. 술 냄새에 취해서 오는 것 같아, 크하!</t>
+  </si>
+  <si>
+    <t>퇴근길인가? 나도 장사 접고 들어가고 싶다니까. 부럽구먼!</t>
+  </si>
+  <si>
+    <t>오늘도 손님들 홀리고 왔나? 바 장사는 역시 자네가 최고지.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -966,9 +1208,22 @@
     <font>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -988,21 +1243,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1333,21 +1617,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A3813C-C140-4D5B-9DC5-AEE517EEDFFA}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,45 +1667,59 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780E1DC5-6F96-45B6-AEC1-5B1F34E617C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="69.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="14" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1462,7 +1760,7 @@
         <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1476,7 +1774,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1503,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1517,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1544,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1558,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1585,16 +1883,90 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>38</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>66</v>
+      </c>
+      <c r="F6">
+        <v>80</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -1657,724 +2029,1350 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8750EC-8C0F-4C2D-95F6-3613BDE4906E}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="60.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
+      <c r="C10" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587ECBB5-A40B-459B-A765-E9FD0D7D4D73}">
-  <dimension ref="A1:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="72.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B24B819-66CE-4522-A8E9-8CAC3D8F6FB2}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25B5FF9-9A79-4CB5-8B19-265288301439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49B613-9C84-4404-82D9-5EF95611085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
   <si>
     <t>guest_code</t>
   </si>
@@ -697,12 +697,6 @@
     <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>Two_hands_chin</t>
-  </si>
-  <si>
-    <t>Two_hands_table</t>
-  </si>
-  <si>
     <t>0004</t>
   </si>
   <si>
@@ -725,9 +719,6 @@
   </si>
   <si>
     <t>RaiseArm</t>
-  </si>
-  <si>
-    <t>heartbeat_answer</t>
   </si>
   <si>
     <t>interact_state</t>
@@ -1047,10 +1038,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1137,6 +1124,85 @@
   </si>
   <si>
     <t>오늘도 손님들 홀리고 왔나? 바 장사는 역시 자네가 최고지.</t>
+  </si>
+  <si>
+    <t>Tipsy</t>
+  </si>
+  <si>
+    <t>Drunken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaiseArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wasted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어어!!?!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 집에 도둑이 드는 꿈을 꿨다고,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜히 기분이 묘하니까 집에 빨리 가봐야겠군,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈을 꿨어,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피곤해서 잔 거니까 오해는 하지 말라고! 내 주량이 얼마나 센 데,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WakeUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heartbeat_answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅎㅇㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1618,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1687,7 +1753,21 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>107</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1782,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1759,8 +1839,8 @@
       <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>56</v>
+      <c r="M1" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1801,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1842,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1883,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1894,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -1935,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -1962,15 +2042,52 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2039,7 +2156,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C18" sqref="A17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2079,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2090,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2101,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2112,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2123,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2134,7 +2251,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2145,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2156,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2167,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2178,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2189,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2200,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -2212,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2223,15 +2340,15 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17"/>
+      <c r="A17" s="8"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="8"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2247,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2293,10 +2410,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2310,10 +2427,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2327,10 +2444,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2344,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2361,10 +2478,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2378,10 +2495,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2395,95 +2512,95 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2491,16 +2608,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2508,16 +2625,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2525,16 +2642,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2542,16 +2659,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
+      <c r="D17" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2559,16 +2676,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>81</v>
+      <c r="D18" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2576,16 +2693,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2593,101 +2710,101 @@
         <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>72</v>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>89</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>24</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2695,16 +2812,16 @@
         <v>37</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>93</v>
+      <c r="D26" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2712,16 +2829,16 @@
         <v>37</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2729,16 +2846,16 @@
         <v>37</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>83</v>
+      <c r="D28" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2746,16 +2863,16 @@
         <v>37</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>84</v>
+      <c r="D29" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2763,13 +2880,13 @@
         <v>37</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>28</v>
@@ -2780,16 +2897,16 @@
         <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2797,35 +2914,153 @@
         <v>37</v>
       </c>
       <c r="B32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="4"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2838,8 +3073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2857,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2898,7 +3133,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2909,7 +3144,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2942,7 +3177,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2953,7 +3188,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3000,7 +3235,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3009,10 +3244,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3020,10 +3255,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
         <v>48</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3031,10 +3266,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3042,10 +3277,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3053,10 +3288,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
         <v>51</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3064,10 +3299,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -3075,10 +3310,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3086,10 +3321,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3097,10 +3332,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3108,10 +3343,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3119,10 +3354,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3130,10 +3365,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3141,10 +3376,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3152,10 +3387,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3163,10 +3398,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3174,10 +3409,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3185,10 +3420,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3196,10 +3431,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -3207,10 +3442,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3218,10 +3453,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -3229,10 +3464,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3240,10 +3475,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3251,10 +3486,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3262,10 +3497,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3273,10 +3508,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3284,10 +3519,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -3295,10 +3530,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3306,10 +3541,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3317,10 +3552,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3328,10 +3563,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3339,10 +3574,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3350,10 +3585,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3361,10 +3596,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C47">
         <v>1</v>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49B613-9C84-4404-82D9-5EF95611085B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408178B-2665-4D8C-88DD-1B995D13559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
   <si>
     <t>guest_code</t>
   </si>
@@ -655,33 +655,9 @@
     <t>npc_code</t>
   </si>
   <si>
-    <t>콜먼, 벌써 출근하는 거야?</t>
-  </si>
-  <si>
-    <t>그럼 좀 있다가 보자고~</t>
-  </si>
-  <si>
-    <t>당신의 그 솜씨 좋은 술맛은 여전하겠지?</t>
-  </si>
-  <si>
-    <t>콜먼! 자네가 저번에 흘리고 간 물건이 있는데 이거 가져가게</t>
-  </si>
-  <si>
-    <t>꼼꼼하던 자네가 칠칠맞게 흘리고 다닐 줄이야 누가 알았겠나 하하</t>
-  </si>
-  <si>
     <t>0003</t>
   </si>
   <si>
-    <t>곧 월세 내는 날인 건 알고 있겠지?</t>
-  </si>
-  <si>
-    <t>우리 사정이 급해~ 우리도 이러고 싶진 않다고.</t>
-  </si>
-  <si>
-    <t>3일까지 잘 준비해보라고 크킄..</t>
-  </si>
-  <si>
     <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
   </si>
   <si>
@@ -697,54 +673,15 @@
     <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>어이 퇴근하는 거냐?</t>
-  </si>
-  <si>
-    <t>돈은 꽤 벌었고? 어서 모아~키킼</t>
-  </si>
-  <si>
-    <t>0005</t>
-  </si>
-  <si>
-    <t>콜먼! 자네 퇴근하는건가?</t>
-  </si>
-  <si>
-    <t>나도 한번 들어야하는데 요새 일이 너무 많군</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
     <t>RaiseArm</t>
   </si>
   <si>
+    <t>heartbeat_answer</t>
+  </si>
+  <si>
     <t>interact_state</t>
   </si>
   <si>
-    <t>자네 바쁜 거 아닌가?</t>
-  </si>
-  <si>
-    <t>어서 출근하러 가라고</t>
-  </si>
-  <si>
-    <t>물건 간수 잘하게~ 요새 뒷골목 놈들이 판치고 다니니..</t>
-  </si>
-  <si>
-    <t>조심하는게 좋을거야..</t>
-  </si>
-  <si>
-    <t>얼마 남지 않았다고? 부지런히 움직이는게 좋을 거야~</t>
-  </si>
-  <si>
-    <t>내일도 움직여야 하잖나?</t>
-  </si>
-  <si>
-    <t>어서 퇴근하러 가라고~</t>
-  </si>
-  <si>
     <t>최근에 많은 일이 있어서 못들렸네</t>
   </si>
   <si>
@@ -833,10 +770,6 @@
   </si>
   <si>
     <t>콜먼 오랜만이군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈을 준비하려면 어서 움직여야하지 않겠어? 크킄..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1038,6 +971,10 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,162 +983,211 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>어이, 콜먼! 오늘도 바쁜 하루겠지? 일찍 서둘러야 손님들이 기다리지 않을 거야.</t>
-  </si>
-  <si>
-    <t>자네, 오늘도 멋진 칵테일로 사람들 홀리겠지? 그 솜씨, 참 대단하다니까.</t>
-  </si>
-  <si>
-    <t>출근길인가? 오늘도 가게 분위기 좀 제대로 살려줘야 할 텐데. 기대하고 있다고!</t>
-  </si>
-  <si>
-    <t>어서 가보게, 손님들 기다리다 지치면 안 되잖아. 자네 솜씨에 달린 일이니까.</t>
-  </si>
-  <si>
-    <t>0010</t>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퇴근인가? 오늘도 고생 많았네. 바 분위기는 여전히 멋졌겠지?</t>
-  </si>
-  <si>
-    <t>어이, 콜먼! 퇴근길에 뭐 하나 챙겨가려고? 자네 맛 좀 볼 수 있으면 좋겠구먼.</t>
-  </si>
-  <si>
-    <t>밤새워 일하다니 참 대단하구먼. 얼른 들어가 쉬어야 할 텐데.</t>
-  </si>
-  <si>
-    <t>0007</t>
+    <t>콜먼! 오늘 맛있는 술이 들어왔다지?</t>
+  </si>
+  <si>
+    <t>오늘 기대 하겠네!</t>
+  </si>
+  <si>
+    <t>콜먼 요새 당신이 행동이 이상하다는 사람들이 많은데 혹시 어디 아픈가??</t>
+  </si>
+  <si>
+    <t>아프다면 쉬는걸 추천하네</t>
+  </si>
+  <si>
+    <t>쉬엄쉬엄 살라구!! 허허!</t>
+  </si>
+  <si>
+    <t>안녕하시오 난 셀레나 부사장님을 모시고 있는 비서입니다.</t>
+  </si>
+  <si>
+    <t>부사장님께서 자네의 칵테일이 수준급이라 하던데 오늘은 나도 마셔보고싶구려</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오늘 날씨 좋지? 우리가 살짝 긴장만 풀면 다 끝날 것 같은 날씨야, 그치?</t>
-  </si>
-  <si>
-    <t>우린 참 착한 사람들이야, 알지? 적당히 하면 넘어가줄지도 몰라, 크킄</t>
-  </si>
-  <si>
-    <t>야, 뭐해? 어서 움직이라고. 시간은 금이라고? 우리한텐 돈이지, 크킄.</t>
-  </si>
-  <si>
-    <t>뭐해, 뭐해! 농땡이 부릴 시간 있으면 얼른 움직여야지. 다 보여, 다 보여</t>
-  </si>
-  <si>
-    <t>0011</t>
+    <t xml:space="preserve">어머 콜먼! 여자를 기다리게 하다니.. </t>
+  </si>
+  <si>
+    <t>어서 맛있는 칵테일 마시고 싶어</t>
+  </si>
+  <si>
+    <t>어이 콜먼! 월세 내는 날 얼마 안남은거 알지?</t>
+  </si>
+  <si>
+    <t>안내게되면 우리 보스에게 어떤일을 당한줄 모른다구?</t>
+  </si>
+  <si>
+    <t>어.,..? 어?! 휘뚜룹…? 너.. 너., 너가 왜?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">큭.. 다짜고짜 협박이라니! </t>
+  </si>
+  <si>
+    <t>내가 지구에 불법 거주하는 걸 제국에 말한다고?</t>
+  </si>
+  <si>
+    <t>알겠네 알겠어 일단은 협조할께 내일까지 정보를 알아오지.</t>
+  </si>
+  <si>
+    <t>금고의 비밀번호를 알아냈어.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭐야, 벌써 끝난 거야? 부지런하네. 좀 쉬고 가도 되지 않겠어?</t>
-  </si>
-  <si>
-    <t>퇴근하는 거 보면 뭔가 기분이 묘하네. 오늘 밤도 잘해봐, 크킄.</t>
-  </si>
-  <si>
-    <t>어서 가라니까! 근데... 오늘도 뭐 좀 챙겨왔어? 크킄.</t>
+    <t>내일 칵테일바에 가도록 하지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이 콜먼 내가 만든 제작품이 하나 있는데 가져가 볼텐가?</t>
+  </si>
+  <si>
+    <t>잘 쓰고 후기 부탁 바라네!</t>
+  </si>
+  <si>
+    <t>여러군데 정신없이 만들다 보니 길바닥에 하나정도는 떨어져 있을수도..?</t>
+  </si>
+  <si>
+    <t>내 제작품은 어땠어?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">후후 내 걸작이라고! </t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>003</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>005</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>007</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콜먼, 오늘도 한바탕 하러 가는 거지? 저녁 장사 잘되길 바라네!</t>
-  </si>
-  <si>
-    <t>그 바에 가면 손님들이 줄을 서서 기다린다던데, 자네 덕분 아닐까?</t>
-  </si>
-  <si>
-    <t>어두운 길 조심하게나. 생선처럼 미끄러질 수도 있으니 말이야, 크하하!</t>
-  </si>
-  <si>
-    <t>0009</t>
+    <t>Tipsy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이런, 콜먼. 밤새 고생했겠구먼. 술 냄새에 취해서 오는 것 같아, 크하!</t>
-  </si>
-  <si>
-    <t>퇴근길인가? 나도 장사 접고 들어가고 싶다니까. 부럽구먼!</t>
-  </si>
-  <si>
-    <t>오늘도 손님들 홀리고 왔나? 바 장사는 역시 자네가 최고지.</t>
-  </si>
-  <si>
-    <t>Tipsy</t>
-  </si>
-  <si>
     <t>Drunken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RaiseArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wasted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어어!!?!!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 집에 도둑이 드는 꿈을 꿨다고,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜히 기분이 묘하니까 집에 빨리 가봐야겠군,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꿈을 꿨어,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피곤해서 잔 거니까 오해는 하지 말라고! 내 주량이 얼마나 센 데,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WakeUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heartbeat_answer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이언</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎㅇㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴㄴ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,6 +1277,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1320,7 +1314,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,6 +1340,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1684,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1753,21 +1753,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1768,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1839,8 +1825,8 @@
       <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>142</v>
+      <c r="M1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1854,7 +1840,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1881,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1895,7 +1881,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1922,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1936,7 +1922,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1963,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -2009,16 +1995,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -2042,52 +2028,15 @@
         <v>4</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -2156,7 +2105,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A17:C18"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2185,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2196,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2207,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2218,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2229,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2240,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2251,7 +2200,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2262,7 +2211,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2273,82 +2222,82 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="1"/>
+      <c r="C17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="1"/>
       <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -2364,10 +2313,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2410,10 +2359,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2427,10 +2376,10 @@
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2444,10 +2393,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2461,10 +2410,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2478,10 +2427,10 @@
         <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2495,10 +2444,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2512,95 +2461,95 @@
         <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>136</v>
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>139</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>137</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>140</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2608,16 +2557,16 @@
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2625,16 +2574,16 @@
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>70</v>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2642,16 +2591,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>66</v>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2659,16 +2608,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>67</v>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2676,16 +2625,16 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2693,16 +2642,16 @@
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2710,183 +2659,183 @@
         <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>85</v>
+      <c r="D26" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>87</v>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>88</v>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>28</v>
@@ -2894,173 +2843,55 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3">
-        <v>2</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="3">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B40" s="3">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>141</v>
-      </c>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3071,10 +2902,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3092,126 +2923,126 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
+      <c r="A2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="A3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
+      <c r="A4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
+      <c r="A5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
+      <c r="A6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
+      <c r="A7" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
+      <c r="A8" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
+      <c r="A9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
+      <c r="A10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
+      <c r="A11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
+      <c r="A12" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3219,11 +3050,11 @@
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
+      <c r="A13" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3231,11 +3062,11 @@
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>92</v>
+      <c r="A14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3243,154 +3074,154 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>47</v>
+      <c r="A15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
+      <c r="A16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
+      <c r="A17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
+      <c r="A18" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>51</v>
+      <c r="A19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
+      <c r="A20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
+      <c r="A21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>106</v>
+      <c r="A22" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>52</v>
+      <c r="A23" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
+      <c r="A24" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>109</v>
+      <c r="A25" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>109</v>
+      <c r="A26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3398,10 +3229,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3409,205 +3240,87 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="A32" s="8"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8"/>
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408178B-2665-4D8C-88DD-1B995D13559B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E743084-D421-4C9A-97DC-79316700CF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
     <sheet name="Steps" sheetId="4" r:id="rId2"/>
-    <sheet name="CocktailRejectScripts" sheetId="5" r:id="rId3"/>
-    <sheet name="BarScripts" sheetId="1" r:id="rId4"/>
-    <sheet name="NPCScripts" sheetId="6" r:id="rId5"/>
+    <sheet name="BarScripts" sheetId="1" r:id="rId3"/>
+    <sheet name="CocktailRejectScripts" sheetId="5" r:id="rId4"/>
+    <sheet name="MonologueScripts" sheetId="7" r:id="rId5"/>
+    <sheet name="NPCScripts" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -556,8 +557,110 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>juho kim</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>juho kim:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>초반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">독백
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>후반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>독백</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
   <si>
     <t>guest_code</t>
   </si>
@@ -598,9 +701,6 @@
     <t>step_order</t>
   </si>
   <si>
-    <t>condition_value</t>
-  </si>
-  <si>
     <t>베일 존</t>
   </si>
   <si>
@@ -667,9 +767,6 @@
     <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고한다.</t>
-  </si>
-  <si>
     <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
   </si>
   <si>
@@ -682,91 +779,25 @@
     <t>interact_state</t>
   </si>
   <si>
-    <t>최근에 많은 일이 있어서 못들렸네</t>
-  </si>
-  <si>
     <t>역시 자네 솜씨는 최고야 하나만 더주게,,</t>
   </si>
   <si>
     <t>으얽,,,</t>
   </si>
   <si>
-    <t>안녕 콜먼~ 요새 바빠서 잘 오지도 못했네 미안</t>
-  </si>
-  <si>
     <t>역시 콜먼,, 당신은 미쳤어,, 어쩜 내 입맛을 이렇게 딱맞게 만들어 줄수 있어?</t>
   </si>
   <si>
-    <t>하나만 마시면 아쉬우니 하나만 더줘봐</t>
-  </si>
-  <si>
-    <t>으어ㅓ어,,, 콜머어언,,,나랑 놀자,,,</t>
-  </si>
-  <si>
     <t>기절,,,</t>
   </si>
   <si>
-    <t>내 취향알지? 예쁜걸로 하나 주도록 해 핑크색인데 레몬맛나는거 알지?</t>
-  </si>
-  <si>
-    <t>반가우니 술하나만 만들어 주시게나</t>
-  </si>
-  <si>
     <t>시나몬 향이 나는 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>입이 텁텁하니 화한 맛이 나는 청량한 술로 주게 그그 저번에 은하수모양 있지않나?</t>
-  </si>
-  <si>
-    <t>이번에는 조금 달달한걸로 저번에 그 있자나? 달떠있는거? 그걸로 줘바</t>
-  </si>
-  <si>
-    <t>역시,,,이맛이야,,음,,,</t>
-  </si>
-  <si>
-    <t>아으,, 정신이 몽롱해 ,,, 아 맞다,, 2주전에 나한테 줬던 선물 정말 고마워,</t>
-  </si>
-  <si>
     <t>호호호호호,,</t>
   </si>
   <si>
-    <t>으ㅡ음,, 제가 많이 취했나보 ㅏ,,,</t>
-  </si>
-  <si>
-    <t>근데 못참겠구나 하나만 더줘,,,!!!</t>
-  </si>
-  <si>
-    <t>아까랑 같은걸로 주게나,,,!!</t>
-  </si>
-  <si>
-    <t>크으ㅡㅡ 이게 얼마만의 술인가,,,</t>
-  </si>
-  <si>
-    <t>역시 자네는 ,,,크어ㅓ어,,,</t>
-  </si>
-  <si>
-    <t>크어어 좋구나 좋아,,,으,,으ㅜㅁ,,,!!</t>
-  </si>
-  <si>
     <t>아까 줬던 걸로 다시 주라고 한다.</t>
-  </si>
-  <si>
-    <t>하하 안녕하신가! 또왔네</t>
-  </si>
-  <si>
-    <t>저번처럼 좋은거 하나 주시게나</t>
-  </si>
-  <si>
-    <t>흠,,, 오늘 기분이 씁쓸하니,, 시나몬향의 칵테일 하나만 만들어주게</t>
-  </si>
-  <si>
-    <t>난 계피가 들어가야 기분이 좀 낫더라고 그리고 알코올도! 허허...</t>
-  </si>
-  <si>
-    <t>음,,, 취하면 안되는데,,</t>
-  </si>
-  <si>
-    <t>내일 배를 탄다 말일쎄,,</t>
   </si>
   <si>
     <t>콜먼 오랜만이군</t>
@@ -971,10 +1002,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,12 +1217,461 @@
     <t>Drunken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>내가 죽었다고..? 나는 이 정도가 아니라고..!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WakeUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>script_type</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>script</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 목표인 화성의 엔진을 찾아내야 하는데… 오늘은 일단 숨겨져 있는 장소를 찾아봐야겠다.</t>
+  </si>
+  <si>
+    <t>오늘은 이만 퇴근 하고 내일 필요한 정보들을 꼭 찾아야겠다.</t>
+  </si>
+  <si>
+    <t>오늘이 임무 마지막 날이네.</t>
+  </si>
+  <si>
+    <t>내가 변장한 비다 콜먼의 모습을 최대한 똑같이 연기해야 한다.</t>
+  </si>
+  <si>
+    <t>다른 사람을 연기 한다는 게 쉽지 않네,,</t>
+  </si>
+  <si>
+    <t>오늘은 금고의 비밀번호를 알아내야 해 어서 손님들에게서 정보를 빼내야겠다.</t>
+  </si>
+  <si>
+    <t>오늘 손님은 여기 까지 인 것 같다. 이만 퇴근해야겠어.</t>
+  </si>
+  <si>
+    <t>아직 얻지 못한 정보들을 꼭 얻자.</t>
+  </si>
+  <si>
+    <t>어서 퇴근하고 임무를 완수한 다음, 이 마을에서 나가자.</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금에 와서야 마셔보는구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고향 외계동료들이 생각나게 하는 칵테일을 달라고 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난 시나몬향이 나는 칵테일 하나 주시게 젊은이.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젊은 친구가 실력이 좋아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌써 다마셨다니…같은걸로 한번더 주시게나!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끌끌끌끌끌끌끌끌끌끌끌끌끌끌끌끌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허허 끌끌.. 너무 술맛이 좋구만!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌렁..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>004</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(흠... 달빛처럼 은은한 반짝임이 느껴지지 않아. 더 신비롭게 만들어야겠어.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음,,외계 동포들이 생각 나지 않아,, 다시 해야 겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전혀 외계 스럽지가 않은걸? 블루를 찾아야해)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠흠.. 젊은이.. 내가 추태를 부렸구만 오늘 잘마셨네 그럼 이만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에는 조금 달달한걸로 저번에 그 있자나? 달떠있는거? 그걸로 줘봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정말 맛있다!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">흡…! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한잔 들어가니 벌써 몽롱하네.. 온세상이 핑크야 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑크핑크한 칵테일 한잔 줘줘줘~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…욱… 헤헤… 너무 좋다 ㄴ..ㅓ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.. 내가 언제 취했죠..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와아아아우… 콜먼…대단..해 근데 뭔가 요새 달라진 것 같단 말이지...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼! 내가 또 왔어!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응이 왜이렇게 시큰둥해요? 흠 이러면 오늘 시작은 색다른 칵테일로 가볼까요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짝반짝 빛나는 당신의 눈처럼 은하수 같은 칵테일 한잔 줘요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 처음 마셔보는데요..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 맞다 어떤 깡패 하나가 제 뒤에 있었는데 조심해요 콜먼.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아으,, 정신이 몽롱해 ,,, 아 맞다,, 2주전에 나한테 줬던 선물 정말 고마워.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오.. 대단하군..변장했으면서 실력도 같이 변장했나보네..? 생각보다 잘해?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직은 줄순 없지!! 우리 외계 동포가 생각나는 걸로 한잔 줘봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 지금 밤에 떠오른 달이 생각나면서 시원한 칵테일 줘봐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여어..콜먼..! 내가 왔다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 휘루나 룹 이라해야 하나..? 크큭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오 대단해 우리별에서 마시던 음료랑 비슷한 맛이 나네? 좋다 좋아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어라..? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 그리고 금고의 비밀번호를 알아냈긴 했는데…여기 내 품안에 있긴해~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보를 넘겨 주는 대신 조건이 있다. 내가 여기에 있다는 것을 우리별에 알리지 마라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음…? 내가 알코올 따위에 취하나..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절,,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으윽.. 감히…! 내가 취한 사이에 내 정보를 가져가?!?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하 옛날 버릇 어디 안갔네? 휘루나 룹?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이럴줄 알고 내가 마을 사람들에게 너가 변장한 사실의 정보를 흘려놨지 크크크크크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 큰일났어 임마! 나 간다~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흠,, 라이언의 반응을 보니 내 정체가 탄로가 나기 직전인 것 같다.</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에 무슨 우리 마을에 큰 물건이 들어 왔다나 뭐래나..많은 일이 있어서 못들렸네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아 어떻게 알았냐고? 거기서 가족 사진을 찍던중 어떤 회사사람들이 그 근처를 통제해서 사진을 못찍었어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 텁텁하니 화한 맛이 나는 청량한 술로 주게 그그 저번에 은하수모양 있지않았나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시,,,이맛이야!!!!!,,우하하하하하하하!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕 콜먼~ 요새 우리 회사 일 때문에 바빠서 잘 오지도 못했네 미안해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 취향알죠? 예쁜걸로 하나 주도록 해요. 핑크색인데 레몬맛나는거 알죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나만 마시면 아쉬우니 하나만 더줘봐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으ㅡ음,, 제가 많이 취했나보 ㅏ,,,요새 너무 일이 많았나 벌써 취하다니,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으어ㅓ어,,, 콜머어언,,,우리 ㅇ,,ㅏ,,빠는 왜 자꾸 내 생일날을 비밀번호로 한다는건지,,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시나 실수 했으면 바로 말해줘요. 내일 또 올께요..!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.. 내가 언제 기절했었지..제가 무슨 말실수 같은건 안했죠…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑군 젊은이. 항상 우리 셀레나 사장님이 마시는걸 보기만했는데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오?? 우리 사장님이 확실히 단골이 되신 이유가 있구만!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1761,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1314,7 +1797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1347,6 +1830,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1684,10 +2170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1715,8 +2201,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1736,7 +2222,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1744,7 +2230,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1753,8 +2239,39 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1768,7 +2285,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1799,34 +2316,34 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1840,7 +2357,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -1864,10 +2381,10 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1878,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -1905,10 +2422,10 @@
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1919,10 +2436,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -1946,24 +2463,24 @@
         <v>3</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -1990,21 +2507,21 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -2035,15 +2552,175 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>87</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10">
+        <v>99</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="8"/>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2095,228 +2772,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="60.125" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2345,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2356,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2373,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -2390,13 +2856,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2407,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2424,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2441,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2458,30 +2924,30 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2492,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2506,16 +2972,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2526,13 +2992,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2543,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>183</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2560,13 +3026,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>53</v>
+        <v>158</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2577,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2591,16 +3057,16 @@
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2611,13 +3077,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2628,13 +3094,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2645,13 +3111,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2662,27 +3128,27 @@
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>26</v>
@@ -2690,208 +3156,973 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>65</v>
+        <v>142</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>186</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>67</v>
+        <v>120</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>121</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>69</v>
+        <v>124</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="3">
+        <v>3</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="3">
+        <v>3</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="60.125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D38" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2901,11 +4132,155 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2917,21 +4292,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2939,10 +4314,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2950,10 +4325,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2961,10 +4336,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2972,10 +4347,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2983,10 +4358,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2994,10 +4369,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3005,10 +4380,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3016,10 +4391,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3027,10 +4402,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3039,10 +4414,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3051,10 +4426,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3063,10 +4438,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3075,10 +4450,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -3086,10 +4461,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -3097,10 +4472,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3108,10 +4483,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3119,10 +4494,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3130,10 +4505,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3141,10 +4516,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -3152,10 +4527,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3163,10 +4538,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3174,10 +4549,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -3185,10 +4560,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3196,10 +4571,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3207,10 +4582,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3218,10 +4593,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3229,10 +4604,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3240,10 +4615,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3315,7 +4690,7 @@
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="7" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E743084-D421-4C9A-97DC-79316700CF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA176CC-AC7A-4879-B188-E61A599E3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="1770" windowWidth="19005" windowHeight="11385" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{370E2D69-8814-4B3E-8A8B-C957A50EE4EA}">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="219">
   <si>
     <t>guest_code</t>
   </si>
@@ -758,50 +758,22 @@
     <t>0003</t>
   </si>
   <si>
-    <t xml:space="preserve">어쩜 이리 맛있는 칵테일을 계속 해서 만들어 줄 수있어? </t>
-  </si>
-  <si>
-    <t>당신은 천재인것 같아!!</t>
-  </si>
-  <si>
     <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
   </si>
   <si>
     <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>RaiseArm</t>
-  </si>
-  <si>
     <t>heartbeat_answer</t>
   </si>
   <si>
     <t>interact_state</t>
   </si>
   <si>
-    <t>역시 자네 솜씨는 최고야 하나만 더주게,,</t>
-  </si>
-  <si>
-    <t>으얽,,,</t>
-  </si>
-  <si>
-    <t>역시 콜먼,, 당신은 미쳤어,, 어쩜 내 입맛을 이렇게 딱맞게 만들어 줄수 있어?</t>
-  </si>
-  <si>
-    <t>기절,,,</t>
-  </si>
-  <si>
     <t>시나몬 향이 나는 칵테일을 달라고 한다.</t>
   </si>
   <si>
-    <t>호호호호호,,</t>
-  </si>
-  <si>
     <t>아까 줬던 걸로 다시 주라고 한다.</t>
-  </si>
-  <si>
-    <t>콜먼 오랜만이군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1014,12 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콜먼! 오늘 맛있는 술이 들어왔다지?</t>
-  </si>
-  <si>
-    <t>오늘 기대 하겠네!</t>
-  </si>
-  <si>
     <t>콜먼 요새 당신이 행동이 이상하다는 사람들이 많은데 혹시 어디 아픈가??</t>
   </si>
   <si>
@@ -1027,9 +993,6 @@
   </si>
   <si>
     <t>쉬엄쉬엄 살라구!! 허허!</t>
-  </si>
-  <si>
-    <t>안녕하시오 난 셀레나 부사장님을 모시고 있는 비서입니다.</t>
   </si>
   <si>
     <t>부사장님께서 자네의 칵테일이 수준급이라 하던데 오늘은 나도 마셔보고싶구려</t>
@@ -1163,23 +1126,6 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>004</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>005</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,10 +1156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tipsy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Drunken</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1235,14 +1177,6 @@
   </si>
   <si>
     <t>03</t>
-  </si>
-  <si>
-    <t>내가 죽었다고..? 나는 이 정도가 아니라고..!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WakeUp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>day</t>
@@ -1294,10 +1228,6 @@
     <t>0005</t>
   </si>
   <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1307,26 +1237,6 @@
   </si>
   <si>
     <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데릴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데릴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금에 와서야 마셔보는구만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데릴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1379,232 +1289,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고향 외계동료들이 생각나게 하는 칵테일을 달라고 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>난 시나몬향이 나는 칵테일 하나 주시게 젊은이.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>젊은 친구가 실력이 좋아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벌써 다마셨다니…같은걸로 한번더 주시게나!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>끌끌끌끌끌끌끌끌끌끌끌끌끌끌끌끌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허허 끌끌.. 너무 술맛이 좋구만!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>훌렁..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>004</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>(흠... 달빛처럼 은은한 반짝임이 느껴지지 않아. 더 신비롭게 만들어야겠어.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>(음,,외계 동포들이 생각 나지 않아,, 다시 해야 겠어.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(전혀 외계 스럽지가 않은걸? 블루를 찾아야해)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀레나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠흠.. 젊은이.. 내가 추태를 부렸구만 오늘 잘마셨네 그럼 이만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에는 조금 달달한걸로 저번에 그 있자나? 달떠있는거? 그걸로 줘봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정말 맛있다!! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">흡…! </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">한잔 들어가니 벌써 몽롱하네.. 온세상이 핑크야 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핑크핑크한 칵테일 한잔 줘줘줘~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어…욱… 헤헤… 너무 좋다 ㄴ..ㅓ..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음.. 내가 언제 취했죠..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와아아아우… 콜먼…대단..해 근데 뭔가 요새 달라진 것 같단 말이지...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼! 내가 또 왔어!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반응이 왜이렇게 시큰둥해요? 흠 이러면 오늘 시작은 색다른 칵테일로 가볼까요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반짝반짝 빛나는 당신의 눈처럼 은하수 같은 칵테일 한잔 줘요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 처음 마셔보는데요..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 맞다 어떤 깡패 하나가 제 뒤에 있었는데 조심해요 콜먼.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아으,, 정신이 몽롱해 ,,, 아 맞다,, 2주전에 나한테 줬던 선물 정말 고마워.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이언</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호오.. 대단하군..변장했으면서 실력도 같이 변장했나보네..? 생각보다 잘해?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직은 줄순 없지!! 우리 외계 동포가 생각나는 걸로 한잔 줘봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 지금 밤에 떠오른 달이 생각나면서 시원한 칵테일 줘봐.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여어..콜먼..! 내가 왔다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니 휘루나 룹 이라해야 하나..? 크큭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호오 대단해 우리별에서 마시던 음료랑 비슷한 맛이 나네? 좋다 좋아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어라..? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 그리고 금고의 비밀번호를 알아냈긴 했는데…여기 내 품안에 있긴해~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보를 넘겨 주는 대신 조건이 있다. 내가 여기에 있다는 것을 우리별에 알리지 마라.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음…? 내가 알코올 따위에 취하나..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기절,,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으윽.. 감히…! 내가 취한 사이에 내 정보를 가져가?!?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하 옛날 버릇 어디 안갔네? 휘루나 룹?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이럴줄 알고 내가 마을 사람들에게 너가 변장한 사실의 정보를 흘려놨지 크크크크크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넌 큰일났어 임마! 나 간다~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1612,59 +1305,391 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>최근에 무슨 우리 마을에 큰 물건이 들어 왔다나 뭐래나..많은 일이 있어서 못들렸네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아 어떻게 알았냐고? 거기서 가족 사진을 찍던중 어떤 회사사람들이 그 근처를 통제해서 사진을 못찍었어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마음이 텁텁하니 화한 맛이 나는 청량한 술로 주게 그그 저번에 은하수모양 있지않았나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시,,,이맛이야!!!!!,,우하하하하하하하!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕 콜먼~ 요새 우리 회사 일 때문에 바빠서 잘 오지도 못했네 미안해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 취향알죠? 예쁜걸로 하나 주도록 해요. 핑크색인데 레몬맛나는거 알죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나만 마시면 아쉬우니 하나만 더줘봐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으ㅡ음,, 제가 많이 취했나보 ㅏ,,,요새 너무 일이 많았나 벌써 취하다니,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으어ㅓ어,,, 콜머어언,,,우리 ㅇ,,ㅏ,,빠는 왜 자꾸 내 생일날을 비밀번호로 한다는건지,,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시나 실수 했으면 바로 말해줘요. 내일 또 올께요..!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음.. 내가 언제 기절했었지..제가 무슨 말실수 같은건 안했죠…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑군 젊은이. 항상 우리 셀레나 사장님이 마시는걸 보기만했는데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오?? 우리 사장님이 확실히 단골이 되신 이유가 있구만!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Angry</t>
+  </si>
+  <si>
+    <t>WakeUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tipsy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데릴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼! 요즘 바 운영은 잘하고 있는가??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하시오. 난 셀레나 부사장님을 모시고 있는 비서입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 길 가다가 이 물건을 하나 주웠는데 자네 물건 아닌가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가져가게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고향 외계 동료들이 생각나게 하는 칵테일을 달라고 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼, 오랜만이야. 자네 그새 분위기가 조금 바뀐 것 같군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요즘 많은 일이 있었어. 최근에 마을에 낯선 사람들이 왔다갔다 해서 사람들이 불안해하고 있어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒷골목 깡패 자식들은 그걸 빌미로 상인들에게 보호비를 뜯어내고 있더군.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무튼 어서 마실것 좀 주게. 화한 맛이나는 청량한 술 있지 않나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시.. 이맛이야!! 우하하하하!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RaiseArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">어이 콜먼, 자네 그거 알아? 들리는 소문으론 최근에 우리 마을에 무슨 중요한 물건이 들어왔다던데.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 새벽 낚시를 하다가 그 물건을 숨기는 장면을 본 것 같단 말이지..흠흠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정장을 입은 사람들이 작은 금고를 소중히 들고 어딘가로  우르르 들어가는 모습을 말이야. </t>
+  </si>
+  <si>
+    <t>뭐? 거기가 어딘지 알려달라고? 맨 입으로 되나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어서 술을 더 달라고!! 이 베일존이 말이야 왕년에..느ㄴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(털썩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wasted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">뭐?! 내가 기절했었다고..? 말도 안돼. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 베일 존이 고작 칵테일 한 잔에 쓰러졌다고? 난 이 정도가 아니라고!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕, 콜먼~ 오랜만이네요. 요새 정신이 없어서 잘 오지도 못했네요. 미안해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단은 먼저 칵테일 하나 시킬게요. 당신을 봤더니 칵테일을 마시고 싶어지네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.. 내 취향 알죠? 예쁜걸로 하나 주도록 해요. 핑크색인데 레몬 맛 나는 거요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 콜먼.. 당신이야. 어쩜 이렇게 내 입맛에 딱 맞는 칵테일을 만들 수 있죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전보다 훨씬 더 맛있어 졌어요. 내가 바빠서 못 오는 동안 도대체 얼마나 열심히 일 한거에요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무슨 일 때문에 바빴냐고요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">글쎄, 저번에 아빠가 이름 모를 보석같은 걸 수집했다고 했잖아요. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 안전한 곳으로 옮긴다고 회사 전체가 바빴어요. 정말 그게 뭐라고 이렇게 난리 인건지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나만 마시면 아쉬우니 한 잔만 더 줘봐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 맛있어... 헤헤. 마치 기계로 만든 것처럼 완벽한 맛이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...콜먼, 하루종일 아빠와 있으면서 숨이 막혔는데 당신이랑 있으니 마음이 편안해져. 헤헤.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 날 아직도 어린애로 봐... 잠시도 날... 내버려두지 않는다니까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">심지어는 내 생일을 자기 모든 비밀번호로 쓰고 있다니까.. 이 정도면 집착이라구.. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직도 도둑이 들지 않은게 신기할 정도야.. 헤헤.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>....(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음.. 내가 언제 기절 했었지..? 제가 무슨 말실수 같은건 안했죠...?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시나 실수 했으면 잊어줘요. 내일 또 올게요...!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반갑네. 젊은이. 항상 우리 셀레나 사장님이 마시는걸 지켜 보기만 했는데 이제야 마셔보는구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 셀레나 사장님의 아버지이자, 회장님이신 마이클 회장님이 오늘은 특별히 자유시간을 주셨다네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 취향은 셀레나 사장님과 다르게 정말 까다로운데 날 만족 시킬 수 있겠나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나몬 향이 나는 칵테일 한 잔 주시게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오?? 확실히 우리 사장님이 단골이 되신 이유가 있구만! 젊은 친구가 실력이 좋아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레나 사장님은 늘 이런걸 마시셨던건가.. 질투가 날 정도구만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">...젊은이. 우리 셀레나 사장님 에게 잘해주게.. 불쌍한 사람이야. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단 한번도 자기가 원하는 삶을 살아 본 적이 없지. 늘 회장님의 뜻대로 살아야 했어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 이 칵테일 바에 오는 게 셀레나 사장님에게 유일한 자유일 지도 몰라…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">나도 조금 취했나 보군. 별 소리를 다하고 있어. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘따라 술이 잘들어가는구만. 같은 걸로 한 잔 더 주시게나.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허허 끌끌.. 술맛 좋구만... 딸꾹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..2주전 셀레나의 생일엔 정말 지옥 같았지.. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">셀레나가 자신의 집에서 친구들과 생일 파티를 하고 있었는데, 회장님이 들이닥치셔서 </t>
+  </si>
+  <si>
+    <t>모든 남자 애들을 집에서 내쫓아버렸어..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">나도 쫓겨날뻔했다구. 껄껄껄.. </t>
+  </si>
+  <si>
+    <t>그 날 자네가... 회장님과 싸우고 집을 나온 셀레나와 함께 있어줘서 셀레나가 얼마나 위로를 받았는지 몰라.. 딸꾹.</t>
+  </si>
+  <si>
+    <t>회장님은 셀레나를 사랑하시지만...딸꾹. 가끔은 너무 심한 면이 있지.</t>
+  </si>
+  <si>
+    <t>그래도 그렇...지 딸꾹.. 딸끅그.. 극ㄱ..</t>
+  </si>
+  <si>
+    <t>(훌렁)</t>
+  </si>
+  <si>
+    <t>흠흠.. 내가 추태를 부렸구만. 오늘 잘 마셨네. 그럼 이만.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕, 콜먼. 내가 또 왔어!</t>
+  </si>
+  <si>
+    <t>오늘은 당신이 아니라 전에 얘기한 우리 아빠가 소중히 여기는 물건이 잘 있나 보러 올리언스에 왔어요.</t>
+  </si>
+  <si>
+    <t>그게 뭐냐구요? 흐흐 글쎄요? 달달한 술을 주면 말 할 용기가 생길지도 모르죠.</t>
+  </si>
+  <si>
+    <t>반짝반짝 빛나는 당신의 눈처럼 은하수 같은 칵테일로 주세요.</t>
+  </si>
+  <si>
+    <t>정말 맛있다!</t>
+  </si>
+  <si>
+    <t>한 잔 들어가니 벌써 몽롱하네.. 온세상이 핑크야</t>
+  </si>
+  <si>
+    <t>아 아까 얘기 하던거에 대해 빨리 말해달라구요?</t>
+  </si>
+  <si>
+    <t>왜이리 급해요... 당신도 보석에 관심이 있었어..?</t>
+  </si>
+  <si>
+    <t>콜먼. 당신 뭔가 요새 달라진 것 같단 말이지.. 헤헤.</t>
+  </si>
+  <si>
+    <t>아무튼, 말해주기로 했으니까.. 헤헤.  아빠가 소중히 여기는 물건이 뭔지 얘기해 줄게요..</t>
+  </si>
+  <si>
+    <t>그게... 뭐냐면.. 바로바로........</t>
+  </si>
+  <si>
+    <t>(기절)</t>
+  </si>
+  <si>
+    <t>이런.. 오늘도 취해 버렸네요... 헤헤. 어디까지 얘기했었죠?</t>
+  </si>
+  <si>
+    <t>WakeUp</t>
+  </si>
+  <si>
+    <t>아 소중한 물건에 관해서요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼. 그래도 이건 아니죠. 아무리 당신이라도 그런 중요한 정보를 말해 줄 순 없다구요.</t>
+  </si>
+  <si>
+    <t>오늘은 이만 가볼게요.</t>
+  </si>
+  <si>
+    <t>어이! 콜먼.. 내가 왔다.</t>
+  </si>
+  <si>
+    <t>아니 휘뚜룹이라고 해야 하나..? 크큭.</t>
+  </si>
+  <si>
+    <t>그나저나 휘뚜룹 1급 요원인 네가 지구에 있을 줄은 몰랐다.</t>
+  </si>
+  <si>
+    <t>내가 화성국 요원이던 시전 너에게 괴롭힘을 당한 기억이 어제 일 처럼 생생해.</t>
+  </si>
+  <si>
+    <t>뭐...? 그게 괴롭힘이 아니었다고?</t>
+  </si>
+  <si>
+    <t>내가 실수를 할때마다 나를 혼낸게 괴롭힘이였어! 난 상처를 많이 받았다구.. 하..</t>
+  </si>
+  <si>
+    <t>옛 기억을 회상했더니 기분만 잡쳤어. 기분 전환이 필요해.</t>
+  </si>
+  <si>
+    <t>밤에 떠오른 달이 생각나면서 시원한 칵테일이면 전환 될 것 같아.</t>
+  </si>
+  <si>
+    <t>호오.. 대단해.. 변장하면서 실력도 같이 변장했나 보네..? 생각보다 잘하잖아..?</t>
+  </si>
+  <si>
+    <t>아 그리고 금고로 들어가는 수로의 비밀 번호를  알아냈어... 크큭. 하지만 아직 네게 줄 순 없지.</t>
+  </si>
+  <si>
+    <t>정보를 넘겨 주는 대신 조건이 있다. 내가 여기에 있다는 사실을 화성국에 알리지 마.</t>
+  </si>
+  <si>
+    <t>내가 화성국에서 저지른 일들은 정말 중범죄라더라고.</t>
+  </si>
+  <si>
+    <t>화성국 본부가 내가 지구에 있다는 것을 알게되면 난 정말 죽고말거야.. 아주 끔찍하게...</t>
+  </si>
+  <si>
+    <t>그래도 화성에 있는 내 가족들이 가끔 보고싶긴하네.. 이젠 기억도 희미해..</t>
+  </si>
+  <si>
+    <t>우리 가족들이 생각날 수 있는 맛. 그런 칵테일로 줘.</t>
+  </si>
+  <si>
+    <t>호오 대단해. 정말 화성에서 마시던 음료와 비슷한 맛이 나네? 좋다. 좋아!</t>
+  </si>
+  <si>
+    <t>휘뚜룹..!! 난 네가 정말 싫었어! 항상 날 바보 취급했지! 그래봤자 넌 지금 나에게 술을 따르는 바텐더 일 뿐이라고! 크크큭.</t>
+  </si>
+  <si>
+    <t>음..? 내가 알코올 따위에 취하나..?</t>
+  </si>
+  <si>
+    <t>이거 기분 좋은데?! 술을 더 따라보라고..!</t>
+  </si>
+  <si>
+    <t>어라..?</t>
+  </si>
+  <si>
+    <t>으윽.. 감히..! 내가 취한 사이에 내 정보를 훔쳐가?!</t>
+  </si>
+  <si>
+    <t>내가 이럴 줄 알았어! 넌 하나도 변한게 없다고!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당장 마을 사람들에게 네가 지금까지 한 짓을 일러바쳐 버리겠어!!</t>
+  </si>
+  <si>
+    <t>(이건 화성의 느낌이 아니야. 더 탄산이 느껴지면 좋겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(은은한 달빛을 전혀 뿜어내지 않고 있어. 더 신비로운 느낌이 좋겠어.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, 아직 충분이 빛나지 않아. 은하수처럼 빛나게 만들어야 해. )</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(흠… 우주의 은하수 느낌과는 전혀 다른걸.)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2172,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2202,7 +2227,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2239,12 +2264,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2258,7 +2283,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2267,7 +2292,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,7 +2310,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2322,28 +2347,28 @@
         <v>29</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
       <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
       </c>
       <c r="L1" t="s">
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2357,7 +2382,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -2369,19 +2394,19 @@
         <v>2</v>
       </c>
       <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
         <v>5</v>
       </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
       <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -2398,7 +2423,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -2410,19 +2435,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>4</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -2439,7 +2464,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -2451,16 +2476,16 @@
         <v>2</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
         <v>7</v>
       </c>
-      <c r="I4">
-        <v>4</v>
-      </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
         <v>5</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -2477,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -2492,16 +2517,16 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
       <c r="J5">
+        <v>2</v>
+      </c>
+      <c r="K5">
         <v>5</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -2518,10 +2543,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -2533,19 +2558,19 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -2553,7 +2578,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2562,7 +2587,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2574,19 +2599,19 @@
         <v>1</v>
       </c>
       <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
       <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
         <v>4</v>
       </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -2594,60 +2619,60 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E8">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>80</v>
@@ -2656,62 +2681,21 @@
         <v>2</v>
       </c>
       <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
         <v>5</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10">
-        <v>99</v>
-      </c>
-      <c r="F10">
-        <v>80</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
         <v>9</v>
       </c>
     </row>
@@ -2779,10 +2763,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2797,7 +2781,7 @@
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +2798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2825,13 +2809,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2842,15 +2826,15 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2859,15 +2843,15 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2876,13 +2860,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2893,13 +2877,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2910,13 +2894,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2927,146 +2911,147 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
+      <c r="D16" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3074,16 +3059,16 @@
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
+      <c r="D17" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3091,33 +3076,33 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
+      <c r="D18" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>184</v>
+      <c r="D19" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3125,251 +3110,251 @@
         <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>187</v>
+        <v>23</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>186</v>
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>189</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>153</v>
+        <v>113</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>25</v>
@@ -3377,16 +3362,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>154</v>
+        <v>113</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>25</v>
@@ -3394,444 +3379,971 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3">
-        <v>0</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>155</v>
+      <c r="D36" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>146</v>
+      <c r="D38" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D39" s="4" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D40" s="4" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="3">
-        <v>2</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="3">
-        <v>2</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="3">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>150</v>
+      <c r="D44" s="4" t="s">
+        <v>166</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="3">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>151</v>
+      <c r="D45" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="3">
-        <v>3</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>157</v>
+      <c r="D46" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>164</v>
+        <v>113</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B48" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>165</v>
+        <v>113</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B49" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>161</v>
+        <v>113</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>168</v>
+        <v>113</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="B52" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>169</v>
+        <v>113</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="B54" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>166</v>
+        <v>23</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>176</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B55" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>170</v>
+        <v>23</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B56" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>171</v>
+        <v>23</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B58" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>172</v>
+        <v>23</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B59" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>173</v>
+        <v>23</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>174</v>
+        <v>23</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="3">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="3">
+      <c r="D69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="3">
+        <v>1</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="3">
+        <v>1</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="3">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="3">
         <v>3</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>190</v>
+      <c r="C90" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" s="3">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3845,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3875,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3886,7 +4398,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3897,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3908,7 +4420,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -3919,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -3930,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3941,7 +4453,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -3952,7 +4464,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -3963,7 +4475,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -3974,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -3985,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3996,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4007,7 +4519,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -4019,7 +4531,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4030,99 +4542,107 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4136,7 +4656,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4148,13 +4668,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4165,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4176,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4187,7 +4707,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4198,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4209,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4220,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4231,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4242,7 +4762,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4253,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4264,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4277,10 +4797,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4298,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4314,10 +4834,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4325,32 +4845,32 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>71</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4358,10 +4878,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4369,32 +4889,32 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4402,34 +4922,33 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4438,33 +4957,34 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4472,10 +4992,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -4483,10 +5003,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4494,10 +5014,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4505,10 +5025,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="10" t="s">
         <v>75</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4516,32 +5036,32 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4549,32 +5069,32 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -4582,32 +5102,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4615,18 +5135,25 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
@@ -4688,9 +5215,13 @@
       <c r="A47" s="8"/>
       <c r="B47" s="7"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="7" t="s">
-        <v>60</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA176CC-AC7A-4879-B188-E61A599E3967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF3A231-CB28-4C00-9AF7-20DD44C08782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11865" yWindow="1770" windowWidth="19005" windowHeight="11385" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guests" sheetId="2" r:id="rId1"/>
@@ -563,7 +563,7 @@
     <author>juho kim</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{370E2D69-8814-4B3E-8A8B-C957A50EE4EA}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A6E17209-6269-41B2-BEDC-C312BBDA97C2}">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="247">
   <si>
     <t>guest_code</t>
   </si>
@@ -758,292 +758,14 @@
     <t>0003</t>
   </si>
   <si>
-    <t>핑크색 구름처럼 보이는 우아한 칵테일을 달라고 한다.</t>
-  </si>
-  <si>
-    <t>민트 처럼 입안이 화해지며 은하수처럼 반짝 거리는 칵테일을 달라고 한다.</t>
-  </si>
-  <si>
     <t>heartbeat_answer</t>
   </si>
   <si>
     <t>interact_state</t>
   </si>
   <si>
-    <t>시나몬 향이 나는 칵테일을 달라고 한다.</t>
-  </si>
-  <si>
-    <t>아까 줬던 걸로 다시 주라고 한다.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>아니야, 차가움이 부족해. 얼음처럼 투명하고 깨끗한 느낌을 더해야 해.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(흠... 달빛처럼 은은한 반짝임이 느껴지지 않아. 더 신비롭게 만들어야겠어.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(이건 아니야. 달 표면처럼 보이지 않아. 차분하고 고요한 느낌이 필요해.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>음... 아니야. 따뜻한 시나몬의 색감이 부족해. 더 진하고, 더 포근해야 해.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(흠... 반짝거리는 갈색 가루가 제대로 표현되지 않았어. 우주 쓰레기의 독특한 터치가 느껴지지 않아.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이건 아니야. 첫맛은 풍부하고 끝맛은 쌉쌀한 그 완벽한 대비가 있어야 해. 다시 해보자.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(흠... 마치 하늘에 떠 있는 구름처럼 우아한 느낌이 나야 하는데 전혀 다른걸..)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아니야, 더 몽글몽글하고 가벼운 느낌이 필요해.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>이건 은하수처럼 보이지 않아. 반짝이고 청량하게 만들어야겠어.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아니야, 입안에서 화해지는 느낌이 부족해. 마치 민트바람이 지나가는 그런 상쾌함이 필요해.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(음... 아니야. 더 상쾌하고 별빛처럼 맑아야 해.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>005</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(주문한 칵테일이 아닌 것 같아. 부드럽고 핑크빛으로 가득한, 그런 우아함이 필요해.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼 요새 당신이 행동이 이상하다는 사람들이 많은데 혹시 어디 아픈가??</t>
-  </si>
-  <si>
-    <t>아프다면 쉬는걸 추천하네</t>
-  </si>
-  <si>
-    <t>쉬엄쉬엄 살라구!! 허허!</t>
-  </si>
-  <si>
-    <t>부사장님께서 자네의 칵테일이 수준급이라 하던데 오늘은 나도 마셔보고싶구려</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">어머 콜먼! 여자를 기다리게 하다니.. </t>
-  </si>
-  <si>
-    <t>어서 맛있는 칵테일 마시고 싶어</t>
-  </si>
-  <si>
-    <t>어이 콜먼! 월세 내는 날 얼마 안남은거 알지?</t>
-  </si>
-  <si>
-    <t>안내게되면 우리 보스에게 어떤일을 당한줄 모른다구?</t>
-  </si>
-  <si>
-    <t>어.,..? 어?! 휘뚜룹…? 너.. 너., 너가 왜?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">큭.. 다짜고짜 협박이라니! </t>
-  </si>
-  <si>
-    <t>내가 지구에 불법 거주하는 걸 제국에 말한다고?</t>
-  </si>
-  <si>
-    <t>알겠네 알겠어 일단은 협조할께 내일까지 정보를 알아오지.</t>
-  </si>
-  <si>
-    <t>금고의 비밀번호를 알아냈어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내일 칵테일바에 가도록 하지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이 콜먼 내가 만든 제작품이 하나 있는데 가져가 볼텐가?</t>
-  </si>
-  <si>
-    <t>잘 쓰고 후기 부탁 바라네!</t>
-  </si>
-  <si>
-    <t>여러군데 정신없이 만들다 보니 길바닥에 하나정도는 떨어져 있을수도..?</t>
-  </si>
-  <si>
-    <t>내 제작품은 어땠어?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">후후 내 걸작이라고! </t>
   </si>
   <si>
     <r>
@@ -1180,60 +902,21 @@
   </si>
   <si>
     <t>day</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>script_type</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>script</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 목표인 화성의 엔진을 찾아내야 하는데… 오늘은 일단 숨겨져 있는 장소를 찾아봐야겠다.</t>
-  </si>
-  <si>
-    <t>오늘은 이만 퇴근 하고 내일 필요한 정보들을 꼭 찾아야겠다.</t>
-  </si>
-  <si>
-    <t>오늘이 임무 마지막 날이네.</t>
-  </si>
-  <si>
-    <t>내가 변장한 비다 콜먼의 모습을 최대한 똑같이 연기해야 한다.</t>
-  </si>
-  <si>
-    <t>다른 사람을 연기 한다는 게 쉽지 않네,,</t>
-  </si>
-  <si>
-    <t>오늘은 금고의 비밀번호를 알아내야 해 어서 손님들에게서 정보를 빼내야겠다.</t>
-  </si>
-  <si>
-    <t>오늘 손님은 여기 까지 인 것 같다. 이만 퇴근해야겠어.</t>
-  </si>
-  <si>
-    <t>아직 얻지 못한 정보들을 꼭 얻자.</t>
-  </si>
-  <si>
-    <t>어서 퇴근하고 임무를 완수한 다음, 이 마을에서 나가자.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>0004</t>
   </si>
   <si>
-    <t>0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0005</t>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0003</t>
@@ -1261,50 +944,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>얼음처럼 차가우며 은은한 달빛이 연상되는 칵테일을 달라고</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>한다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>condition_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(음,,외계 동포들이 생각 나지 않아,, 다시 해야 겠어.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(전혀 외계 스럽지가 않은걸? 블루를 찾아야해)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흠,, 라이언의 반응을 보니 내 정체가 탄로가 나기 직전인 것 같다.</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>Angry</t>
   </si>
   <si>
@@ -1328,26 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>콜먼! 요즘 바 운영은 잘하고 있는가??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하시오. 난 셀레나 부사장님을 모시고 있는 비서입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어제 길 가다가 이 물건을 하나 주웠는데 자네 물건 아닌가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가져가게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고향 외계 동료들이 생각나게 하는 칵테일을 달라고 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Angry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1356,45 +979,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요즘 많은 일이 있었어. 최근에 마을에 낯선 사람들이 왔다갔다 해서 사람들이 불안해하고 있어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뒷골목 깡패 자식들은 그걸 빌미로 상인들에게 보호비를 뜯어내고 있더군.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아무튼 어서 마실것 좀 주게. 화한 맛이나는 청량한 술 있지 않나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시.. 이맛이야!! 우하하하하!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RaiseArm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">어이 콜먼, 자네 그거 알아? 들리는 소문으론 최근에 우리 마을에 무슨 중요한 물건이 들어왔다던데.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 새벽 낚시를 하다가 그 물건을 숨기는 장면을 본 것 같단 말이지..흠흠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정장을 입은 사람들이 작은 금고를 소중히 들고 어딘가로  우르르 들어가는 모습을 말이야. </t>
-  </si>
-  <si>
-    <t>뭐? 거기가 어딘지 알려달라고? 맨 입으로 되나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어서 술을 더 달라고!! 이 베일존이 말이야 왕년에..느ㄴ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(털썩)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1403,300 +995,617 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">뭐?! 내가 기절했었다고..? 말도 안돼. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>정말 맛있어... 헤헤. 마치 기계로 만든 것처럼 완벽한 맛이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>....(기절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오?? 확실히 우리 사장님이 단골이 되신 이유가 있구만! 젊은 친구가 실력이 좋아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(훌렁)</t>
+  </si>
+  <si>
+    <t>오늘은 당신이 아니라 전에 얘기한 우리 아빠가 소중히 여기는 물건이 잘 있나 보러 올리언스에 왔어요.</t>
+  </si>
+  <si>
+    <t>정말 맛있다!</t>
+  </si>
+  <si>
+    <t>(기절)</t>
+  </si>
+  <si>
+    <t>WakeUp</t>
+  </si>
+  <si>
+    <t>오늘은 이만 가볼게요.</t>
+  </si>
+  <si>
+    <t>뭐...? 그게 괴롭힘이 아니었다고?</t>
+  </si>
+  <si>
+    <t>옛 기억을 회상했더니 기분만 잡쳤어. 기분 전환이 필요해.</t>
+  </si>
+  <si>
+    <t>내가 화성국에서 저지른 일들은 정말 중범죄라더라고.</t>
+  </si>
+  <si>
+    <t>당장 마을 사람들에게 네가 지금까지 한 짓을 일러바쳐 버리겠어!!</t>
+  </si>
+  <si>
+    <t>요즘 많은 일이 있었어. 최근에 마을에 낯선 사람들이 왔다 갔다 해서 사람들이 불안해하고 있어.</t>
+  </si>
+  <si>
+    <t>아무튼 어서 마실 것 좀 주게. 화한 맛이 나는 청량한 술 있지 않나.</t>
+  </si>
+  <si>
+    <t>역시... 이 맛이야!! 우하하하하!!</t>
+  </si>
+  <si>
+    <t>정장을 입은 사람들이 금고를 소중히 들고 어딘가로 우르르 들어가는 모습을 말이야.</t>
+  </si>
+  <si>
+    <t>뭐? 거기가 어딘지 알려달라고? 맨입으로는 되나.</t>
+  </si>
+  <si>
+    <t>어서 술을 더 달라고!! 이 베일 존이 말이야, 왕년에...느...</t>
+  </si>
+  <si>
+    <t>뭐?! 내가 기절했었다고? 말도 안 돼.</t>
   </si>
   <si>
     <t>이 베일 존이 고작 칵테일 한 잔에 쓰러졌다고? 난 이 정도가 아니라고!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>안녕, 콜먼~ 오랜만이네요. 요새 정신이 없어서 잘 오지도 못했네요. 미안해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단은 먼저 칵테일 하나 시킬게요. 당신을 봤더니 칵테일을 마시고 싶어지네요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음.. 내 취향 알죠? 예쁜걸로 하나 주도록 해요. 핑크색인데 레몬 맛 나는 거요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>역시 콜먼.. 당신이야. 어쩜 이렇게 내 입맛에 딱 맞는 칵테일을 만들 수 있죠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전보다 훨씬 더 맛있어 졌어요. 내가 바빠서 못 오는 동안 도대체 얼마나 열심히 일 한거에요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 먼저 칵테일 하나 시킬게요. 당신을 봤더니 칵테일이 마시고 싶어지네요.</t>
+  </si>
+  <si>
+    <t>음... 내 취향 알죠? 예쁜 걸로 하나 주도록 해요. 핑크색인데 레몬 맛 나는 거요.</t>
+  </si>
+  <si>
+    <t>역시 콜먼, 당신이야. 어쩜 이렇게 내 입맛에 딱 맞는 칵테일을 만들 수 있죠?</t>
+  </si>
+  <si>
+    <t>전보다 훨씬 더 맛있어졌어요. 내가 바빠서 못 오는 동안 도대체 얼마나 열심히 일한 거예요?</t>
   </si>
   <si>
     <t>무슨 일 때문에 바빴냐고요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">글쎄, 저번에 아빠가 이름 모를 보석같은 걸 수집했다고 했잖아요. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그걸 안전한 곳으로 옮긴다고 회사 전체가 바빴어요. 정말 그게 뭐라고 이렇게 난리 인건지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나만 마시면 아쉬우니 한 잔만 더 줘봐…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 맛있어... 헤헤. 마치 기계로 만든 것처럼 완벽한 맛이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>...콜먼, 하루종일 아빠와 있으면서 숨이 막혔는데 당신이랑 있으니 마음이 편안해져. 헤헤.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아빠는 날 아직도 어린애로 봐... 잠시도 날... 내버려두지 않는다니까..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">심지어는 내 생일을 자기 모든 비밀번호로 쓰고 있다니까.. 이 정도면 집착이라구.. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아직도 도둑이 들지 않은게 신기할 정도야.. 헤헤.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>....(기절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음.. 내가 언제 기절 했었지..? 제가 무슨 말실수 같은건 안했죠...?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹시나 실수 했으면 잊어줘요. 내일 또 올게요...!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반갑네. 젊은이. 항상 우리 셀레나 사장님이 마시는걸 지켜 보기만 했는데 이제야 마셔보는구만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우리 셀레나 사장님의 아버지이자, 회장님이신 마이클 회장님이 오늘은 특별히 자유시간을 주셨다네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 취향은 셀레나 사장님과 다르게 정말 까다로운데 날 만족 시킬 수 있겠나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 안전한 곳으로 옮긴다고 회사 전체가 바빴어요. 정말 그게 뭐라고 이렇게 난리인 건지...</t>
+  </si>
+  <si>
+    <t>하나만 마시면 아쉬우니 한 잔만 더 줘봐..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...콜먼, 하루 종일 아빠와 있으면서 숨이 막혔는데 당신이랑 있으니 마음이 편안해져. 헤헤.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아빠는 날 아직도 어린애로 봐... 잠시도 날 내버려 두지 않는다니까.</t>
+  </si>
+  <si>
+    <t>음... 내가 언제 기절했죠? 제가 무슨 말실수 같은 건 안 했죠?</t>
+  </si>
+  <si>
+    <t>혹시나 실수했으면 잊어줘요. 내일 또 올게요...!</t>
+  </si>
+  <si>
+    <t>반갑네, 젊은이. 항상 우리 셀레나 사장님이 마시는 걸 지켜보기만 했는데 이제야 마셔보는구만.</t>
+  </si>
+  <si>
+    <t>우리 셀레나 사장님의 아버지이자, 회장님이신 마이클 회장님이 오늘은 특별히 자유 시간을 주셨다네.</t>
+  </si>
+  <si>
+    <t>내 취향은 셀레나 사장님과 다르게 정말 까다로운데, 날 만족시킬 수 있겠나?</t>
   </si>
   <si>
     <t>시나몬 향이 나는 칵테일 한 잔 주시게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오?? 확실히 우리 사장님이 단골이 되신 이유가 있구만! 젊은 친구가 실력이 좋아.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>셀레나 사장님은 늘 이런걸 마시셨던건가.. 질투가 날 정도구만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">...젊은이. 우리 셀레나 사장님 에게 잘해주게.. 불쌍한 사람이야. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단 한번도 자기가 원하는 삶을 살아 본 적이 없지. 늘 회장님의 뜻대로 살아야 했어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 이 칵테일 바에 오는 게 셀레나 사장님에게 유일한 자유일 지도 몰라…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">나도 조금 취했나 보군. 별 소리를 다하고 있어. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오늘따라 술이 잘들어가는구만. 같은 걸로 한 잔 더 주시게나.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허허 끌끌.. 술맛 좋구만... 딸꾹</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..2주전 셀레나의 생일엔 정말 지옥 같았지.. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">셀레나가 자신의 집에서 친구들과 생일 파티를 하고 있었는데, 회장님이 들이닥치셔서 </t>
-  </si>
-  <si>
-    <t>모든 남자 애들을 집에서 내쫓아버렸어..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">나도 쫓겨날뻔했다구. 껄껄껄.. </t>
-  </si>
-  <si>
-    <t>그 날 자네가... 회장님과 싸우고 집을 나온 셀레나와 함께 있어줘서 셀레나가 얼마나 위로를 받았는지 몰라.. 딸꾹.</t>
-  </si>
-  <si>
-    <t>회장님은 셀레나를 사랑하시지만...딸꾹. 가끔은 너무 심한 면이 있지.</t>
-  </si>
-  <si>
-    <t>그래도 그렇...지 딸꾹.. 딸끅그.. 극ㄱ..</t>
-  </si>
-  <si>
-    <t>(훌렁)</t>
-  </si>
-  <si>
-    <t>흠흠.. 내가 추태를 부렸구만. 오늘 잘 마셨네. 그럼 이만.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레나 사장님은 늘 이런 걸 마셨던 건가... 질투가 날 정도구만.</t>
+  </si>
+  <si>
+    <t>...젊은이, 우리 셀레나 사장님에게 잘해주게. 불쌍한 사람이야</t>
+  </si>
+  <si>
+    <t>단 한 번도 자기가 원하는 삶을 살아본 적이 없지. 늘 회장님의 뜻대로 살아야 했어.</t>
+  </si>
+  <si>
+    <t>아마 이 칵테일 바에 오는 게 셀레나 사장님에게 유일한 자유일지도 몰라.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 조금 취했나 보군. 별 소리를 다 하고 있어.</t>
+  </si>
+  <si>
+    <t>오늘따라 술이 잘 들어가는구만. 같은 걸로 한 잔 더 주시게나.</t>
+  </si>
+  <si>
+    <t>허허. 끌끌... 술맛 좋구만... 딸꾹.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀레나가 자신의 집에서 친구들과 생일 파티를 하고 있었는데...</t>
+  </si>
+  <si>
+    <t>회장님이 갑자기 들이닥치셔서 모든 남자애들을 집에서 내쫓아버렸어.</t>
+  </si>
+  <si>
+    <t>나도 쫓겨날 뻔했다구. 껄껄껄...</t>
+  </si>
+  <si>
+    <t>그날 자네가... 회장님과 싸우고 집을 나온 셀레나와 함께 있어줘서 셀레나가 얼마나 위로를 받았는지 몰라... 딸꾹.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회장님은 셀레나를 사랑하시지만... 딸꾹. 가끔은 너무 심한 면이 있지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 그렇...지 딸꾹... 딸꾹그... 끅...</t>
+  </si>
+  <si>
+    <t>흠흠... 내가 추태를 부렸구만. 오늘 잘 마셨네. 그럼 이만.</t>
   </si>
   <si>
     <t>안녕, 콜먼. 내가 또 왔어!</t>
-  </si>
-  <si>
-    <t>오늘은 당신이 아니라 전에 얘기한 우리 아빠가 소중히 여기는 물건이 잘 있나 보러 올리언스에 왔어요.</t>
-  </si>
-  <si>
-    <t>그게 뭐냐구요? 흐흐 글쎄요? 달달한 술을 주면 말 할 용기가 생길지도 모르죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그게 뭐냐고요? 흐흐, 글쎄요? 달달한 술을 주면 말할 용기가 생길지도 모르죠.</t>
   </si>
   <si>
     <t>반짝반짝 빛나는 당신의 눈처럼 은하수 같은 칵테일로 주세요.</t>
-  </si>
-  <si>
-    <t>정말 맛있다!</t>
-  </si>
-  <si>
-    <t>한 잔 들어가니 벌써 몽롱하네.. 온세상이 핑크야</t>
-  </si>
-  <si>
-    <t>아 아까 얘기 하던거에 대해 빨리 말해달라구요?</t>
-  </si>
-  <si>
-    <t>왜이리 급해요... 당신도 보석에 관심이 있었어..?</t>
-  </si>
-  <si>
-    <t>콜먼. 당신 뭔가 요새 달라진 것 같단 말이지.. 헤헤.</t>
-  </si>
-  <si>
-    <t>아무튼, 말해주기로 했으니까.. 헤헤.  아빠가 소중히 여기는 물건이 뭔지 얘기해 줄게요..</t>
-  </si>
-  <si>
-    <t>그게... 뭐냐면.. 바로바로........</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 잔 들어가니 벌써 몽롱하네... 온 세상이 핑크야.</t>
+  </si>
+  <si>
+    <t>아, 아까 얘기하던 거에 대해 빨리 말해 달라고요?</t>
+  </si>
+  <si>
+    <t>왜 이리 급해요... 당신도 보석에 관심이 있었어?</t>
+  </si>
+  <si>
+    <t>콜먼, 당신 뭔가 요새 달라진 것 같단 말이지... 헤헤.</t>
+  </si>
+  <si>
+    <t>아무튼, 말해주기로 했으니까... 헤헤. 아빠가 소중히 여기는 물건이 뭔지 얘기해 줄게요.</t>
+  </si>
+  <si>
+    <t>그게... 뭐냐면... 바로바로...</t>
+  </si>
+  <si>
+    <t>이런... 오늘도 취해 버렸네요... 헤헤. 어디까지 얘기했었죠?</t>
+  </si>
+  <si>
+    <t>아, 소중한 물건에 관해서요?</t>
+  </si>
+  <si>
+    <t>콜먼, 그래도 이건 아니죠. 아무리 당신이라도 그런 중요한 정보를 말해 줄 순 없다구요.</t>
+  </si>
+  <si>
+    <t>어이! 콜먼... 내가 왔다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니, 휘뚜룹이라고 해야 하나...? 크큭.</t>
+  </si>
+  <si>
+    <t>그나저나 1급 요원인 네가 지구에 있을 줄은 몰랐다.</t>
+  </si>
+  <si>
+    <t>내가 화성국 요원이던 시절, 너에게 괴롭힘을 당한 기억이 어제 일처럼 생생해.</t>
+  </si>
+  <si>
+    <t>내가 실수를 할 때마다 나를 혼낸 게 괴롭힘이었다고! 난 상처를 많이 받았다구... 하…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤에 떠오른 달이 생각나면서 시원한 칵테일이면 기분 전환이 될 것 같아.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오... 대단해... 변장하면서 실력도 같이 변장했나 보네...? 생각보다 잘하잖아...?</t>
+  </si>
+  <si>
+    <t>정보를 넘겨주는 대신 조건이 있다. 내가 여기에 있다는 사실을 화성국에 알리지 마.</t>
+  </si>
+  <si>
+    <t>화성국 본부가 내가 지구에 있다는 것을 알게 되면 난 정말 죽고 말 거야... 아주 끔찍하게...</t>
+  </si>
+  <si>
+    <t>그래도 화성에 있는 내 가족들이 가끔 보고 싶긴 하네... 이젠 기억도 희미해…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리 가족들이 생각날 수 있는 맛, 그런 칵테일로 줘.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호오, 대단해. 정말 화성에서 마시던 음료와 비슷한 맛이 나네? 좋다. 좋아...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...휘뚜...룹. 난 네가 정말 싫었어... 항상 날 바보 취급했지! 그래봤자 넌 지금 나에게 술을 따르는 바텐더일 뿐이라고... 크크큭.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음...? 내가 알코올 따위에 취하나...?</t>
+  </si>
+  <si>
+    <t>이거 기분 좋은데?! 술을 더 따라 보라고...!</t>
+  </si>
+  <si>
+    <t>어라...?</t>
   </si>
   <si>
     <t>(기절)</t>
-  </si>
-  <si>
-    <t>이런.. 오늘도 취해 버렸네요... 헤헤. 어디까지 얘기했었죠?</t>
-  </si>
-  <si>
-    <t>WakeUp</t>
-  </si>
-  <si>
-    <t>아 소중한 물건에 관해서요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜먼. 그래도 이건 아니죠. 아무리 당신이라도 그런 중요한 정보를 말해 줄 순 없다구요.</t>
-  </si>
-  <si>
-    <t>오늘은 이만 가볼게요.</t>
-  </si>
-  <si>
-    <t>어이! 콜먼.. 내가 왔다.</t>
-  </si>
-  <si>
-    <t>아니 휘뚜룹이라고 해야 하나..? 크큭.</t>
-  </si>
-  <si>
-    <t>그나저나 휘뚜룹 1급 요원인 네가 지구에 있을 줄은 몰랐다.</t>
-  </si>
-  <si>
-    <t>내가 화성국 요원이던 시전 너에게 괴롭힘을 당한 기억이 어제 일 처럼 생생해.</t>
-  </si>
-  <si>
-    <t>뭐...? 그게 괴롭힘이 아니었다고?</t>
-  </si>
-  <si>
-    <t>내가 실수를 할때마다 나를 혼낸게 괴롭힘이였어! 난 상처를 많이 받았다구.. 하..</t>
-  </si>
-  <si>
-    <t>옛 기억을 회상했더니 기분만 잡쳤어. 기분 전환이 필요해.</t>
-  </si>
-  <si>
-    <t>밤에 떠오른 달이 생각나면서 시원한 칵테일이면 전환 될 것 같아.</t>
-  </si>
-  <si>
-    <t>호오.. 대단해.. 변장하면서 실력도 같이 변장했나 보네..? 생각보다 잘하잖아..?</t>
-  </si>
-  <si>
-    <t>아 그리고 금고로 들어가는 수로의 비밀 번호를  알아냈어... 크큭. 하지만 아직 네게 줄 순 없지.</t>
-  </si>
-  <si>
-    <t>정보를 넘겨 주는 대신 조건이 있다. 내가 여기에 있다는 사실을 화성국에 알리지 마.</t>
-  </si>
-  <si>
-    <t>내가 화성국에서 저지른 일들은 정말 중범죄라더라고.</t>
-  </si>
-  <si>
-    <t>화성국 본부가 내가 지구에 있다는 것을 알게되면 난 정말 죽고말거야.. 아주 끔찍하게...</t>
-  </si>
-  <si>
-    <t>그래도 화성에 있는 내 가족들이 가끔 보고싶긴하네.. 이젠 기억도 희미해..</t>
-  </si>
-  <si>
-    <t>우리 가족들이 생각날 수 있는 맛. 그런 칵테일로 줘.</t>
-  </si>
-  <si>
-    <t>호오 대단해. 정말 화성에서 마시던 음료와 비슷한 맛이 나네? 좋다. 좋아!</t>
-  </si>
-  <si>
-    <t>휘뚜룹..!! 난 네가 정말 싫었어! 항상 날 바보 취급했지! 그래봤자 넌 지금 나에게 술을 따르는 바텐더 일 뿐이라고! 크크큭.</t>
-  </si>
-  <si>
-    <t>음..? 내가 알코올 따위에 취하나..?</t>
-  </si>
-  <si>
-    <t>이거 기분 좋은데?! 술을 더 따라보라고..!</t>
-  </si>
-  <si>
-    <t>어라..?</t>
-  </si>
-  <si>
-    <t>으윽.. 감히..! 내가 취한 사이에 내 정보를 훔쳐가?!</t>
-  </si>
-  <si>
-    <t>내가 이럴 줄 알았어! 넌 하나도 변한게 없다고!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당장 마을 사람들에게 네가 지금까지 한 짓을 일러바쳐 버리겠어!!</t>
-  </si>
-  <si>
-    <t>(이건 화성의 느낌이 아니야. 더 탄산이 느껴지면 좋겠어.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(은은한 달빛을 전혀 뿜어내지 않고 있어. 더 신비로운 느낌이 좋겠어.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아니야, 아직 충분이 빛나지 않아. 은하수처럼 빛나게 만들어야 해. )</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>(흠… 우주의 은하수 느낌과는 전혀 다른걸.)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으윽... 감히..! 내가 취한 사이에 내 정보를 훔쳐 가?!</t>
+  </si>
+  <si>
+    <t>내가 이럴 줄 알았어! 넌 하나도 변한 게 없다고!</t>
+  </si>
+  <si>
+    <t>(인간들은 이런 곳에서 술을 마시는 건가?)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 이만 퇴근 하고 내일 필요한 정보들을 더 찾아야겠다.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 금고의 비밀번호를 알아내야 해 어서 손님들에게서 정보를 얻어야겠어.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘도 꽤 많은 정보를 얻었어.. 조금만 더 있으면 비밀번호를 완전히 알 수 있을 것 같아.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘이 임무 마지막 날이네.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아직 얻지 못한 정보들을 꼭 얻자.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런, 라이언 자식 때문에 내 정체가 들키겠어.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어서 임무를 완수한 다음, 이 마을에서 도망가자.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이, 곧 월세를 내야 하는 날이야. 잊진 않았겠지?</t>
+  </si>
+  <si>
+    <t>이번 달에도 월세를 못 내면 그땐 내가 아니라 내 주먹이 찾아갈 거야.</t>
+  </si>
+  <si>
+    <t>월세를 왜 내야 하냐고? 장난해?</t>
+  </si>
+  <si>
+    <t>우리가 이 올리언스를 지켜주고 있으니 당연한 거라고.</t>
+  </si>
+  <si>
+    <t>이제 꺼져.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼, 이제 출근하는 건가?</t>
+  </si>
+  <si>
+    <t>다음에 돈이 생기면 자네 바에 한 번 들리겠네.</t>
+  </si>
+  <si>
+    <t>깡패 자식들에게 보호비를 낸다고 요즘 지갑이 궁해서 말이야.</t>
+  </si>
+  <si>
+    <t>그냥 가지 말고 생선 한 마리 팔아 주고 가~</t>
+  </si>
+  <si>
+    <t>주민끼리 돕고 살아야지.</t>
+  </si>
+  <si>
+    <t>젠장, 휘뚜룹 진짜 당신이야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 누구냐고? 설마 나를 잊어버린 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나, 라이언 이잖아! 화성국에서 당신과 함께 일했던 그 라이언이라고.</t>
+  </si>
+  <si>
+    <t>지구 음식을 좀 먹었다고 벌써 기억력이 인간처럼 돼버린 거야?</t>
+  </si>
+  <si>
+    <t>내가 당신의 임무를 도와줄 테니까 되도록이면 빨리 이 곳에서 꺼져줘.</t>
+  </si>
+  <si>
+    <t>난 화성국 외계인이라면 지긋지긋하다고.</t>
+  </si>
+  <si>
+    <t>그리고 내가 여기 있다는 거 그 뽀글머리 꼬맹이한텐 비밀이야. 알았지?</t>
+  </si>
+  <si>
+    <t>수고 많았어요. 휘뚜룹 요원.</t>
+  </si>
+  <si>
+    <t>알콜 시뮬레이터는 좀 쓸만했어요?</t>
+  </si>
+  <si>
+    <t>그 녀석이 전기세를 좀 많이 잡아먹긴 하지만 성능은 확실하다구요.</t>
+  </si>
+  <si>
+    <t>이거 가져가요. 알콜 시뮬레이터에 쓸 수 있는 배터리예요.</t>
+  </si>
+  <si>
+    <t>임무를 수행하는 데 도움을 줄 거예요.</t>
+  </si>
+  <si>
+    <t>어머 콜먼! 이제 오는 거에요?</t>
+  </si>
+  <si>
+    <t>마침 오늘 이곳에서 업무가 있어서 회사 일 끝나자마자 바로 왔어요.</t>
+  </si>
+  <si>
+    <t>어서 맛있는 칵테일을 마시고 싶어.</t>
+  </si>
+  <si>
+    <t>콜먼, 도대체 어제 자네 바에서 무슨 일이 있었던 거야?</t>
+  </si>
+  <si>
+    <t>어제 베일 존 그 녀석이 자네 바를 나와서 휘청거리다가 쓰러지더군.</t>
+  </si>
+  <si>
+    <t>난 베일 존이 그렇게까지 취한 건 처음 봤어.</t>
+  </si>
+  <si>
+    <t>어이, 왜 이렇게 구부정하게 걸어 다녀?</t>
+  </si>
+  <si>
+    <t>죽도록 일하느라 허리가 굽은 건가? 크크크</t>
+  </si>
+  <si>
+    <t>벌써 내일이면 월세 날이야. 더 열심히 하라구.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 열심히 하라구.</t>
+  </si>
+  <si>
+    <t>비밀번호에 대한 정보를 알아냈어.</t>
+  </si>
+  <si>
+    <t>나도 네 정체를 알고 있다는 사실을 잊지 마.</t>
+  </si>
+  <si>
+    <t>내일 칵테일 바에 가도록 하지.</t>
+  </si>
+  <si>
+    <t>0009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 출근하는 건가요? 오늘도 열심히 해요.</t>
+  </si>
+  <si>
+    <t>그나저나, 지금 당신 집에 기절시켜둔 진짜 콜먼은 살아있는 거죠?</t>
+  </si>
+  <si>
+    <t>아무리 인간이라지만 죽어버리면 곤란해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무가 끝날 때까지 죽지 않게 잘 관리해줘요.</t>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제는 부끄러운 모습을 보인 것 같아 미안하네.</t>
+  </si>
+  <si>
+    <t>어제 과음을 하고 셀레나 부사장님의 일정이 적힌 수첩을 잃어버려서 크게 혼이 났다네.</t>
+  </si>
+  <si>
+    <t>혹시 바에서 일정이 적힌 종이 못 봤는가?</t>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼, 요새 자네 행동이 이상하다는 사람들이 많던데, 혹시 어디 아픈가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아프다면 쉬는 걸 추천하네. 쉬엄쉬엄 살라구!! 허허!</t>
+  </si>
+  <si>
+    <t>그건 그렇고 오늘도 생선은 필요 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민트처럼 입안이 화해지며 &lt;은하수처럼&gt; 반짝거리는 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;핑크색 구름처럼&gt; 보이는 &lt;우아한&gt; 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;얼음&gt;처럼 차갑고 &lt;은은한 달빛&gt;이 연상되는 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시나몬&gt; 향이 나는 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;아까 줬던 걸로&gt; 다시 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜먼의 눈처럼 반짝반짝 빛나는 &lt;은하수&gt; 같은 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤에 떠오른 &lt;달&gt;이 생각나면서 시원한 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고향 &lt;외계&gt; 가족들이 생각나게 하는 칵테일을 달라고 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어이, 콜먼. 자네 그거 알아? 들리는 소문으론 최근에 우리 마을에 무슨 &lt;중요한 물건&gt;이 들어왔다던데...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 새벽 낚시를 하다가 그 물건을 &lt;숨기는 장면&gt;을 본 것 같단 말이지. 흠흠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쎄요, 저번에 아빠가 &lt;이름 모를 보석&gt; 같은 걸 수집했다고 했잖아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>심지어는 &lt;내 생일&gt;을 자기 모든 &lt;비밀번호&gt;로 쓰고 있다니까... 이 정도면 집착이라구..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...&lt;2주 전 셀레나의 생일&gt;엔 정말 지옥 같았지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 그리고 금고로 가는 &lt;수로의 비밀번호&gt;를 알아냈어... 크큭. 하지만 아직 네게 줄 순 없지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음... 아니야. 더 &lt;은하수처럼 빛나고&gt; 별빛처럼 맑아야 해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, 아직 충분히 빛나지 않아. &lt;은하수처럼 빛나게&gt; 만들어야 해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 &lt;은하수처럼&gt; 보이지 않아. 반짝이고 청량하게 만들어야겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, 더 &lt;몽글몽글하고 가벼운&gt; 느낌이 필요해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(흠... 마치 하늘에 떠 있는 &lt;구름처럼 우아한&gt; 느낌이 나야 하는데 전혀 다른걸...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주문한 칵테일이 아닌 것 같아. &lt;부드럽고 핑크빛&gt;으로 가득한, 그런 &lt;우아함&gt;이 필요해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아니야, &lt;차가움&gt;이 부족해. &lt;얼음처럼&gt; 투명하고 깨끗한 느낌을 더해야 해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(흠... &lt;달빛처럼 은은한&gt; 반짝임이 느껴지지 않아. 더 신비롭게 만들어야겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 아니야. &lt;달&gt; 표면처럼 보이지 않아. 차분하고 고요한 느낌이 필요해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음... 아니야. 따뜻한 &lt;시나몬&gt;의 색감이 부족해. 더 진하고, 더 포근해야 해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(흠... 반짝거리는 갈색 가루가 제대로 표현되지 않았어. &lt;우주 쓰레기&gt;의 독특한 터치가 느껴지지 않아.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 아니야. 첫맛은 풍부하고 &lt;끝맛은 씁쓸한&gt; 그 완벽한 대비가 있어야 해. 다시 해보자.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(음... &lt;외계&gt; 가족들이 생각나지 않아... 다시 해야겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(전혀 &lt;외계&gt;스럽지가 않은걸? &lt;블루&gt;를 찾아야 해.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 화성의 느낌이 아니야. 더 &lt;탄산&gt;이 느껴지면 좋겠어.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(오늘은 일단 화성의 코어가 어디에 있는지 알아내야겠어..)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(코어가 있을만한 장소에 대한 정보를 얻었어. 출발이 좋아.)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 꼬맹이한텐 비밀이라고. 몇 번을 말해.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임무를 수행하는 데 도움을 줄 거예요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설마 벌써 내 정체를 누군가에게 말하진 않았겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거나 먹고 떨어져.</t>
+  </si>
+  <si>
+    <t>이거나 먹고 떨어져.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹시 바에서 일정이 적힌 종이 못 봤는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘도 생선은 진짜 필요 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,13 +1681,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1822,7 +1724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,14 +1752,11 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2198,7 +2097,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2227,7 +2126,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2264,12 +2163,12 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2283,7 +2182,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2292,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2310,7 +2209,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2347,7 +2246,7 @@
         <v>29</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
         <v>17</v>
@@ -2368,7 +2267,7 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2381,8 +2280,8 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>33</v>
+      <c r="D2" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -2422,8 +2321,8 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3" s="7" t="s">
+        <v>209</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -2464,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="E4">
         <v>48</v>
@@ -2502,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="E5">
         <v>38</v>
@@ -2543,10 +2442,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="E6">
         <v>66</v>
@@ -2578,7 +2477,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2586,8 +2485,8 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
+      <c r="D7" s="7" t="s">
+        <v>213</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2619,16 +2518,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="E8">
         <v>45</v>
@@ -2660,16 +2559,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="E9">
         <v>99</v>
@@ -2763,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2809,13 +2708,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2825,16 +2724,16 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>123</v>
+      <c r="D3" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -2843,15 +2742,15 @@
         <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -2859,11 +2758,11 @@
       <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>125</v>
+      <c r="D5" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,14 +2775,14 @@
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>126</v>
+      <c r="D6" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2893,8 +2792,8 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>128</v>
+      <c r="D7" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>27</v>
@@ -2910,15 +2809,14 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>129</v>
+      <c r="D8" s="7" t="s">
+        <v>217</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2928,12 +2826,13 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>130</v>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -2945,11 +2844,11 @@
       <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>131</v>
+      <c r="D10" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2962,11 +2861,11 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>132</v>
+      <c r="D11" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,10 +2879,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,11 +2895,11 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>135</v>
+      <c r="D13" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,11 +2912,11 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>136</v>
+      <c r="D14" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3030,8 +2929,8 @@
       <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>137</v>
+      <c r="D15" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>25</v>
@@ -3047,8 +2946,8 @@
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>138</v>
+      <c r="D16" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
@@ -3064,8 +2963,8 @@
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>139</v>
+      <c r="D17" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>25</v>
@@ -3081,14 +2980,14 @@
       <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>140</v>
+      <c r="D18" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3098,11 +2997,11 @@
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>141</v>
+      <c r="D19" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3115,11 +3014,11 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>142</v>
+      <c r="D20" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3132,14 +3031,14 @@
       <c r="C21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>143</v>
+      <c r="D21" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
@@ -3149,11 +3048,11 @@
       <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>144</v>
+      <c r="D22" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3167,10 +3066,10 @@
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3184,13 +3083,13 @@
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
@@ -3201,10 +3100,10 @@
         <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,11 +3116,11 @@
       <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>148</v>
+      <c r="D26" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3234,11 +3133,11 @@
       <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>149</v>
+      <c r="D27" s="7" t="s">
+        <v>219</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3252,10 +3151,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3263,16 +3162,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>151</v>
+      <c r="D29" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3285,59 +3184,59 @@
       <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>152</v>
+      <c r="D30" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B31" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>153</v>
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>154</v>
+        <v>61</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>155</v>
+        <v>61</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>25</v>
@@ -3345,16 +3244,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3">
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>156</v>
+        <v>61</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>25</v>
@@ -3362,19 +3261,19 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>157</v>
+        <v>61</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3385,13 +3284,13 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>158</v>
+        <v>61</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3402,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>159</v>
+        <v>61</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3419,13 +3318,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>160</v>
+        <v>61</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3436,13 +3335,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>161</v>
+        <v>61</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3453,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>162</v>
+        <v>61</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3470,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>163</v>
+        <v>61</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3484,16 +3383,16 @@
         <v>31</v>
       </c>
       <c r="B42" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3504,13 +3403,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>61</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3521,13 +3420,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>61</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3538,137 +3437,137 @@
         <v>2</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>167</v>
+        <v>61</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3">
         <v>2</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>168</v>
+        <v>61</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3">
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3">
         <v>2</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>61</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3">
         <v>2</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>61</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>173</v>
+        <v>61</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B52" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3676,16 +3575,16 @@
       <c r="C53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>175</v>
+      <c r="D53" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -3693,8 +3592,8 @@
       <c r="C54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>176</v>
+      <c r="D54" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>25</v>
@@ -3702,7 +3601,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3">
         <v>0</v>
@@ -3710,8 +3609,8 @@
       <c r="C55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>177</v>
+      <c r="D55" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>25</v>
@@ -3719,24 +3618,24 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -3744,16 +3643,16 @@
       <c r="C57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>179</v>
+      <c r="D57" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -3761,16 +3660,16 @@
       <c r="C58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>180</v>
+      <c r="D58" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -3778,16 +3677,16 @@
       <c r="C59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="4" t="s">
-        <v>181</v>
+      <c r="D59" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -3795,16 +3694,16 @@
       <c r="C60" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>182</v>
+      <c r="D60" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3812,16 +3711,16 @@
       <c r="C61" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>183</v>
+      <c r="D61" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -3829,16 +3728,16 @@
       <c r="C62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>184</v>
+      <c r="D62" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -3847,32 +3746,32 @@
         <v>23</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>185</v>
+        <v>76</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B64" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>186</v>
+      <c r="D64" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B65" s="3">
         <v>2</v>
@@ -3880,16 +3779,16 @@
       <c r="C65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>187</v>
+      <c r="D65" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B66" s="3">
         <v>2</v>
@@ -3897,16 +3796,16 @@
       <c r="C66" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>189</v>
+      <c r="D66" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B67" s="3">
         <v>2</v>
@@ -3915,41 +3814,41 @@
         <v>23</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B68" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>192</v>
+        <v>63</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>25</v>
@@ -3957,16 +3856,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>193</v>
+        <v>63</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>25</v>
@@ -3974,16 +3873,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>194</v>
+        <v>63</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>25</v>
@@ -3991,237 +3890,237 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B72" s="3">
         <v>0</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>195</v>
+        <v>63</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>196</v>
+        <v>63</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B74" s="3">
         <v>0</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>197</v>
+        <v>63</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B75" s="3">
         <v>0</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>198</v>
+        <v>63</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B76" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>199</v>
+        <v>63</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>200</v>
+        <v>63</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>221</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>201</v>
+        <v>63</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>202</v>
+        <v>63</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B80" s="3">
         <v>1</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>203</v>
+        <v>63</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>204</v>
+        <v>63</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>205</v>
+        <v>63</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B83" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>206</v>
+        <v>63</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>112</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B84" s="3">
         <v>2</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>207</v>
+        <v>63</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B85" s="3">
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>208</v>
+        <v>63</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>27</v>
@@ -4229,121 +4128,104 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B86" s="3">
         <v>2</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>209</v>
+        <v>63</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B87" s="3">
         <v>2</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>210</v>
+        <v>63</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B88" s="3">
         <v>2</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>186</v>
+        <v>63</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B90" s="3">
         <v>3</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>212</v>
+        <v>63</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B91" s="3">
         <v>3</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>213</v>
+        <v>63</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" s="3">
-        <v>3</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4357,8 +4239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4387,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -4398,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4409,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>46</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4420,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4431,7 +4313,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -4442,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -4453,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -4464,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4475,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>40</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -4486,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -4497,7 +4379,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -4508,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -4519,7 +4401,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -4531,7 +4413,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4542,106 +4424,106 @@
         <v>2</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>43</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>39</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>107</v>
+      <c r="C23" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>108</v>
+      <c r="C24" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>215</v>
+      <c r="C25" s="7" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4656,7 +4538,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4668,13 +4550,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -4685,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4695,8 +4577,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>88</v>
+      <c r="C3" s="6" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4707,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -4718,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4729,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -4740,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -4751,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -4761,8 +4643,8 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>95</v>
+      <c r="C9" s="7" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -4773,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -4784,11 +4666,11 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4797,10 +4679,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4810,7 +4692,7 @@
     <col min="3" max="3" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -4818,410 +4700,639 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="B2" s="10" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>36</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>117</v>
+        <v>36</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>37</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>63</v>
+        <v>38</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>177</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>179</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>70</v>
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="7" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="7"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="7" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/GameData/BarGuestDB.xlsx
+++ b/Assets/Resources/GameData/BarGuestDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityMyGame\Nemesis1842\Assets\Resources\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF3A231-CB28-4C00-9AF7-20DD44C08782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A5E94-B9F7-4708-9844-87F0986FD908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="252">
   <si>
     <t>guest_code</t>
   </si>
@@ -1570,10 +1570,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그 꼬맹이한텐 비밀이라고. 몇 번을 말해.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1598,6 +1594,30 @@
   </si>
   <si>
     <t>오늘도 생선은 진짜 필요 없는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이 이상으로 찾다가는 옷이 더러워질 것 같다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(더 이상 쓸만한 물건이 없어 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(악취가 진동한다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4240,7 +4260,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4681,8 +4701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4906,7 +4926,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4977,7 +4997,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5133,7 +5153,7 @@
         <v>42</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -5166,7 +5186,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -5177,7 +5197,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -5276,7 +5296,7 @@
         <v>200</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5320,19 +5340,43 @@
         <v>204</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="7" t="s">
-        <v>239</v>
+      <c r="A60" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
